--- a/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
+++ b/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1267,7 +1267,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
+++ b/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
@@ -1252,9 +1252,6 @@
     <t>Source: WHO Global Health Expenditure Database</t>
   </si>
   <si>
-    <t>Source-link: Government spending on health per person</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1273,7 +1270,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1643,52 +1643,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">

--- a/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
+++ b/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
@@ -6834,7 +6834,7 @@
         <v>2013</v>
       </c>
       <c r="D305" t="n">
-        <v>255.430311059696</v>
+        <v>255.4303110597</v>
       </c>
       <c r="E305" t="n">
         <v>2699248</v>
@@ -8545,7 +8545,7 @@
         <v>2000</v>
       </c>
       <c r="D406" t="n">
-        <v>2.16251930220001</v>
+        <v>2.1625193022</v>
       </c>
       <c r="E406" t="n">
         <v>      3</v>
@@ -8579,7 +8579,7 @@
         <v>2002</v>
       </c>
       <c r="D408" t="n">
-        <v>2.67758939320001</v>
+        <v>2.6775893932</v>
       </c>
       <c r="E408" t="n">
         <v>      4</v>
@@ -8596,7 +8596,7 @@
         <v>2003</v>
       </c>
       <c r="D409" t="n">
-        <v>3.95757063950001</v>
+        <v>3.9575706395</v>
       </c>
       <c r="E409" t="n">
         <v>      5</v>
@@ -8613,7 +8613,7 @@
         <v>2004</v>
       </c>
       <c r="D410" t="n">
-        <v>8.49646503600002</v>
+        <v>8.496465036</v>
       </c>
       <c r="E410" t="n">
         <v>     10</v>
@@ -8664,7 +8664,7 @@
         <v>2007</v>
       </c>
       <c r="D413" t="n">
-        <v>8.75696311600001</v>
+        <v>8.756963116</v>
       </c>
       <c r="E413" t="n">
         <v>     11</v>
@@ -8766,7 +8766,7 @@
         <v>2013</v>
       </c>
       <c r="D419" t="n">
-        <v>7.43508932650002</v>
+        <v>7.4350893265</v>
       </c>
       <c r="E419" t="n">
         <v>     11</v>
@@ -13934,7 +13934,7 @@
         <v>2013</v>
       </c>
       <c r="D723" t="n">
-        <v>62.4330761073001</v>
+        <v>62.4330761073</v>
       </c>
       <c r="E723" t="n">
         <v> 118623</v>
@@ -15103,7 +15103,7 @@
         <v>2008</v>
       </c>
       <c r="D794" t="n">
-        <v>72.5690061495001</v>
+        <v>72.5690061495</v>
       </c>
       <c r="E794" t="n">
         <v>  29995</v>
@@ -15256,7 +15256,7 @@
         <v>1998</v>
       </c>
       <c r="D803" t="n">
-        <v>13.9254411840001</v>
+        <v>13.925441184</v>
       </c>
       <c r="E803" t="n">
         <v>     48</v>
@@ -15324,7 +15324,7 @@
         <v>2002</v>
       </c>
       <c r="D807" t="n">
-        <v>9.58471822550001</v>
+        <v>9.5847182255</v>
       </c>
       <c r="E807" t="n">
         <v>     55</v>
@@ -15511,7 +15511,7 @@
         <v>2013</v>
       </c>
       <c r="D818" t="n">
-        <v>50.2907506975999</v>
+        <v>50.2907506976</v>
       </c>
       <c r="E818" t="n">
         <v>    289</v>
@@ -16272,7 +16272,7 @@
         <v>2003</v>
       </c>
       <c r="D865" t="n">
-        <v>80.1158064432001</v>
+        <v>80.1158064432</v>
       </c>
       <c r="E865" t="n">
         <v>   2032</v>
@@ -16442,7 +16442,7 @@
         <v>2013</v>
       </c>
       <c r="D875" t="n">
-        <v>81.8568297379002</v>
+        <v>81.8568297379</v>
       </c>
       <c r="E875" t="n">
         <v>   1633</v>
@@ -19741,7 +19741,7 @@
         <v>1999</v>
       </c>
       <c r="D1070" t="n">
-        <v>50.5888035624999</v>
+        <v>50.5888035625</v>
       </c>
       <c r="E1070" t="n">
         <v>     25</v>
@@ -19860,7 +19860,7 @@
         <v>2006</v>
       </c>
       <c r="D1077" t="n">
-        <v>90.7610702096001</v>
+        <v>90.7610702096</v>
       </c>
       <c r="E1077" t="n">
         <v>     56</v>
@@ -26762,7 +26762,7 @@
         <v>2013</v>
       </c>
       <c r="D1483" t="n">
-        <v>32.8866361506507</v>
+        <v>32.8866361507</v>
       </c>
       <c r="E1483" t="n">
         <v> 358208</v>
@@ -27068,7 +27068,7 @@
         <v>2012</v>
       </c>
       <c r="D1501" t="n">
-        <v>73.7525917973492</v>
+        <v>73.7525917973</v>
       </c>
       <c r="E1501" t="n">
         <v>1258734</v>
@@ -27085,7 +27085,7 @@
         <v>2013</v>
       </c>
       <c r="D1502" t="n">
-        <v>50.7160862190828</v>
+        <v>50.7160862191</v>
       </c>
       <c r="E1502" t="n">
         <v>1714387</v>
@@ -33174,7 +33174,7 @@
         <v>2013</v>
       </c>
       <c r="D1863" t="n">
-        <v>95.2789479725999</v>
+        <v>95.2789479726</v>
       </c>
       <c r="E1863" t="n">
         <v>    249</v>
@@ -33514,7 +33514,7 @@
         <v>1995</v>
       </c>
       <c r="D1883" t="n">
-        <v>6.14486373600002</v>
+        <v>6.144863736</v>
       </c>
       <c r="E1883" t="n">
         <v>    132</v>
@@ -33531,7 +33531,7 @@
         <v>1996</v>
       </c>
       <c r="D1884" t="n">
-        <v>5.59871470599998</v>
+        <v>5.598714706</v>
       </c>
       <c r="E1884" t="n">
         <v>    130</v>
@@ -33548,7 +33548,7 @@
         <v>1997</v>
       </c>
       <c r="D1885" t="n">
-        <v>4.29084655559998</v>
+        <v>4.2908465556</v>
       </c>
       <c r="E1885" t="n">
         <v>    129</v>
@@ -33565,7 +33565,7 @@
         <v>1998</v>
       </c>
       <c r="D1886" t="n">
-        <v>3.98892635749999</v>
+        <v>3.9889263575</v>
       </c>
       <c r="E1886" t="n">
         <v>    133</v>
@@ -33599,7 +33599,7 @@
         <v>2000</v>
       </c>
       <c r="D1888" t="n">
-        <v>3.41295132419999</v>
+        <v>3.4129513242</v>
       </c>
       <c r="E1888" t="n">
         <v>    153</v>
@@ -33633,7 +33633,7 @@
         <v>2002</v>
       </c>
       <c r="D1890" t="n">
-        <v>3.72718769280002</v>
+        <v>3.7271876928</v>
       </c>
       <c r="E1890" t="n">
         <v>    176</v>
@@ -33650,7 +33650,7 @@
         <v>2003</v>
       </c>
       <c r="D1891" t="n">
-        <v>3.93170377600001</v>
+        <v>3.931703776</v>
       </c>
       <c r="E1891" t="n">
         <v>    160</v>
@@ -33667,7 +33667,7 @@
         <v>2004</v>
       </c>
       <c r="D1892" t="n">
-        <v>4.87303866139999</v>
+        <v>4.8730386614</v>
       </c>
       <c r="E1892" t="n">
         <v>    182</v>
@@ -33684,7 +33684,7 @@
         <v>2005</v>
       </c>
       <c r="D1893" t="n">
-        <v>7.60455790079999</v>
+        <v>7.6045579008</v>
       </c>
       <c r="E1893" t="n">
         <v>    294</v>
@@ -38465,7 +38465,7 @@
         <v>2005</v>
       </c>
       <c r="D2178" t="n">
-        <v>6.92027266920002</v>
+        <v>6.9202726692</v>
       </c>
       <c r="E2178" t="n">
         <v>      4</v>
@@ -38482,7 +38482,7 @@
         <v>2006</v>
       </c>
       <c r="D2179" t="n">
-        <v>7.99619906949999</v>
+        <v>7.9961990695</v>
       </c>
       <c r="E2179" t="n">
         <v>      5</v>
@@ -45547,7 +45547,7 @@
         <v>2009</v>
       </c>
       <c r="D2600" t="n">
-        <v>87.0118081712001</v>
+        <v>87.0118081712</v>
       </c>
       <c r="E2600" t="n">
         <v>    253</v>
@@ -49082,7 +49082,7 @@
         <v>2009</v>
       </c>
       <c r="D2809" t="n">
-        <v>43.4892670815333</v>
+        <v>43.4892670815</v>
       </c>
       <c r="E2809" t="n">
         <v> 509082</v>
@@ -49099,7 +49099,7 @@
         <v>2010</v>
       </c>
       <c r="D2810" t="n">
-        <v>38.3275343620078</v>
+        <v>38.327534362</v>
       </c>
       <c r="E2810" t="n">
         <v> 570891</v>
@@ -49116,7 +49116,7 @@
         <v>2011</v>
       </c>
       <c r="D2811" t="n">
-        <v>41.0203317420111</v>
+        <v>41.020331742</v>
       </c>
       <c r="E2811" t="n">
         <v> 653222</v>
@@ -49133,7 +49133,7 @@
         <v>2012</v>
       </c>
       <c r="D2812" t="n">
-        <v>34.5579801411328</v>
+        <v>34.5579801411</v>
       </c>
       <c r="E2812" t="n">
         <v> 659976</v>
@@ -49150,7 +49150,7 @@
         <v>2013</v>
       </c>
       <c r="D2813" t="n">
-        <v>29.0511390958918</v>
+        <v>29.0511390959</v>
       </c>
       <c r="E2813" t="n">
         <v> 585350</v>
@@ -51214,7 +51214,7 @@
         <v>2002</v>
       </c>
       <c r="D2935" t="n">
-        <v>9.99045551400002</v>
+        <v>9.990455514</v>
       </c>
       <c r="E2935" t="n">
         <v>     12</v>
@@ -51350,7 +51350,7 @@
         <v>2010</v>
       </c>
       <c r="D2943" t="n">
-        <v>94.2203831654999</v>
+        <v>94.2203831655</v>
       </c>
       <c r="E2943" t="n">
         <v>     69</v>
@@ -51435,7 +51435,7 @@
         <v>1996</v>
       </c>
       <c r="D2948" t="n">
-        <v>83.2437098615999</v>
+        <v>83.2437098616</v>
       </c>
       <c r="E2948" t="n">
         <v>     24</v>
@@ -51452,7 +51452,7 @@
         <v>1997</v>
       </c>
       <c r="D2949" t="n">
-        <v>76.0357348351999</v>
+        <v>76.0357348352</v>
       </c>
       <c r="E2949" t="n">
         <v>     28</v>
@@ -51469,7 +51469,7 @@
         <v>1998</v>
       </c>
       <c r="D2950" t="n">
-        <v>75.2786037112002</v>
+        <v>75.2786037112</v>
       </c>
       <c r="E2950" t="n">
         <v>     31</v>
@@ -51503,7 +51503,7 @@
         <v>2000</v>
       </c>
       <c r="D2952" t="n">
-        <v>58.2622085519999</v>
+        <v>58.262208552</v>
       </c>
       <c r="E2952" t="n">
         <v>     36</v>
@@ -51520,7 +51520,7 @@
         <v>2001</v>
       </c>
       <c r="D2953" t="n">
-        <v>57.1500997620001</v>
+        <v>57.150099762</v>
       </c>
       <c r="E2953" t="n">
         <v>     42</v>
@@ -51554,7 +51554,7 @@
         <v>2003</v>
       </c>
       <c r="D2955" t="n">
-        <v>95.4229907883999</v>
+        <v>95.4229907884</v>
       </c>
       <c r="E2955" t="n">
         <v>     68</v>
@@ -51724,7 +51724,7 @@
         <v>2013</v>
       </c>
       <c r="D2965" t="n">
-        <v>95.6212040694002</v>
+        <v>95.6212040694</v>
       </c>
       <c r="E2965" t="n">
         <v>     73</v>
@@ -62408,7 +62408,7 @@
         <v>2009</v>
       </c>
       <c r="D3607" t="n">
-        <v>28.3243120051313</v>
+        <v>28.3243120051</v>
       </c>
       <c r="E3607" t="n">
         <v> 334454</v>
@@ -62425,7 +62425,7 @@
         <v>2010</v>
       </c>
       <c r="D3608" t="n">
-        <v>31.8246621324697</v>
+        <v>31.8246621325</v>
       </c>
       <c r="E3608" t="n">
         <v> 452719</v>
@@ -62442,7 +62442,7 @@
         <v>2011</v>
       </c>
       <c r="D3609" t="n">
-        <v>28.1232490032105</v>
+        <v>28.1232490032</v>
       </c>
       <c r="E3609" t="n">
         <v> 523624</v>
@@ -62459,7 +62459,7 @@
         <v>2012</v>
       </c>
       <c r="D3610" t="n">
-        <v>27.4264253965979</v>
+        <v>27.4264253966</v>
       </c>
       <c r="E3610" t="n">
         <v> 572174</v>
@@ -62476,7 +62476,7 @@
         <v>2013</v>
       </c>
       <c r="D3611" t="n">
-        <v>27.8815953118036</v>
+        <v>27.8815953118</v>
       </c>
       <c r="E3611" t="n">
         <v> 613800</v>
@@ -64190,7 +64190,7 @@
         <v>261.4752887502</v>
       </c>
       <c r="U17" t="n">
-        <v>255.430311059696</v>
+        <v>255.4303110597</v>
       </c>
     </row>
     <row r="18">
@@ -64535,19 +64535,19 @@
         <v>2.673870261</v>
       </c>
       <c r="H23" t="n">
-        <v>2.16251930220001</v>
+        <v>2.1625193022</v>
       </c>
       <c r="I23" t="n">
         <v>2.6737094276</v>
       </c>
       <c r="J23" t="n">
-        <v>2.67758939320001</v>
+        <v>2.6775893932</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95757063950001</v>
+        <v>3.9575706395</v>
       </c>
       <c r="L23" t="n">
-        <v>8.49646503600002</v>
+        <v>8.496465036</v>
       </c>
       <c r="M23" t="n">
         <v>10.6881104161</v>
@@ -64556,7 +64556,7 @@
         <v>13.1924470541</v>
       </c>
       <c r="O23" t="n">
-        <v>8.75696311600001</v>
+        <v>8.756963116</v>
       </c>
       <c r="P23" t="n">
         <v>14.9807679813</v>
@@ -64574,7 +64574,7 @@
         <v>28.90588327</v>
       </c>
       <c r="U23" t="n">
-        <v>7.43508932650002</v>
+        <v>7.4350893265</v>
       </c>
     </row>
     <row r="24">
@@ -65614,7 +65614,7 @@
         <v>64.2691001295</v>
       </c>
       <c r="U39" t="n">
-        <v>62.4330761073001</v>
+        <v>62.4330761073</v>
       </c>
     </row>
     <row r="40">
@@ -65821,7 +65821,7 @@
         <v>69.7357375392</v>
       </c>
       <c r="P43" t="n">
-        <v>72.5690061495001</v>
+        <v>72.5690061495</v>
       </c>
       <c r="Q43" t="n">
         <v>75.915075324</v>
@@ -65856,7 +65856,7 @@
         <v>13.12108666</v>
       </c>
       <c r="F44" t="n">
-        <v>13.9254411840001</v>
+        <v>13.925441184</v>
       </c>
       <c r="G44" t="n">
         <v>14.7993408445</v>
@@ -65868,7 +65868,7 @@
         <v>10.7064542781</v>
       </c>
       <c r="J44" t="n">
-        <v>9.58471822550001</v>
+        <v>9.5847182255</v>
       </c>
       <c r="K44" t="n">
         <v>11.0258665328</v>
@@ -65901,7 +65901,7 @@
         <v>49.30281144</v>
       </c>
       <c r="U44" t="n">
-        <v>50.2907506975999</v>
+        <v>50.2907506976</v>
       </c>
     </row>
     <row r="45">
@@ -66028,7 +66028,7 @@
         <v>53.3683098027</v>
       </c>
       <c r="K47" t="n">
-        <v>80.1158064432001</v>
+        <v>80.1158064432</v>
       </c>
       <c r="L47" t="n">
         <v>79.7859437144</v>
@@ -66058,7 +66058,7 @@
         <v>86.83427603</v>
       </c>
       <c r="U47" t="n">
-        <v>81.8568297379002</v>
+        <v>81.8568297379</v>
       </c>
     </row>
     <row r="48">
@@ -66723,7 +66723,7 @@
         <v>389.9375471184</v>
       </c>
       <c r="G58" t="n">
-        <v>50.5888035624999</v>
+        <v>50.5888035625</v>
       </c>
       <c r="H58" t="n">
         <v>40.2455795136</v>
@@ -66744,7 +66744,7 @@
         <v>75.1095804255</v>
       </c>
       <c r="N58" t="n">
-        <v>90.7610702096001</v>
+        <v>90.7610702096</v>
       </c>
       <c r="O58" t="n">
         <v>111.142630137</v>
@@ -68130,7 +68130,7 @@
         <v>35.19124672</v>
       </c>
       <c r="U79" t="n">
-        <v>32.8866361506507</v>
+        <v>32.8866361507</v>
       </c>
     </row>
     <row r="80">
@@ -68192,10 +68192,10 @@
         <v>133.86852727</v>
       </c>
       <c r="T80" t="n">
-        <v>73.7525917973492</v>
+        <v>73.7525917973</v>
       </c>
       <c r="U80" t="n">
-        <v>50.7160862190828</v>
+        <v>50.7160862191</v>
       </c>
     </row>
     <row r="81">
@@ -69396,7 +69396,7 @@
         <v>91.203719159</v>
       </c>
       <c r="U99" t="n">
-        <v>95.2789479725999</v>
+        <v>95.2789479726</v>
       </c>
     </row>
     <row r="100">
@@ -69472,37 +69472,37 @@
         <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>6.14486373600002</v>
+        <v>6.144863736</v>
       </c>
       <c r="D101" t="n">
-        <v>5.59871470599998</v>
+        <v>5.598714706</v>
       </c>
       <c r="E101" t="n">
-        <v>4.29084655559998</v>
+        <v>4.2908465556</v>
       </c>
       <c r="F101" t="n">
-        <v>3.98892635749999</v>
+        <v>3.9889263575</v>
       </c>
       <c r="G101" t="n">
         <v>3.9962846924</v>
       </c>
       <c r="H101" t="n">
-        <v>3.41295132419999</v>
+        <v>3.4129513242</v>
       </c>
       <c r="I101" t="n">
         <v>3.4187172516</v>
       </c>
       <c r="J101" t="n">
-        <v>3.72718769280002</v>
+        <v>3.7271876928</v>
       </c>
       <c r="K101" t="n">
-        <v>3.93170377600001</v>
+        <v>3.931703776</v>
       </c>
       <c r="L101" t="n">
-        <v>4.87303866139999</v>
+        <v>4.8730386614</v>
       </c>
       <c r="M101" t="n">
-        <v>7.60455790079999</v>
+        <v>7.6045579008</v>
       </c>
       <c r="N101" t="n">
         <v>14.0867629374</v>
@@ -70413,10 +70413,10 @@
         <v>3.6018587822</v>
       </c>
       <c r="M116" t="n">
-        <v>6.92027266920002</v>
+        <v>6.9202726692</v>
       </c>
       <c r="N116" t="n">
-        <v>7.99619906949999</v>
+        <v>7.9961990695</v>
       </c>
       <c r="O116" t="n">
         <v>12.3986625912</v>
@@ -71763,7 +71763,7 @@
         <v>111.7072693088</v>
       </c>
       <c r="Q138" t="n">
-        <v>87.0118081712001</v>
+        <v>87.0118081712</v>
       </c>
       <c r="R138" t="n">
         <v>89.7185915136</v>
@@ -72460,19 +72460,19 @@
         <v>29.8286802936</v>
       </c>
       <c r="Q149" t="n">
-        <v>43.4892670815333</v>
+        <v>43.4892670815</v>
       </c>
       <c r="R149" t="n">
-        <v>38.3275343620078</v>
+        <v>38.327534362</v>
       </c>
       <c r="S149" t="n">
-        <v>41.0203317420111</v>
+        <v>41.020331742</v>
       </c>
       <c r="T149" t="n">
-        <v>34.5579801411328</v>
+        <v>34.5579801411</v>
       </c>
       <c r="U149" t="n">
-        <v>29.0511390958918</v>
+        <v>29.0511390959</v>
       </c>
     </row>
     <row r="150">
@@ -72884,7 +72884,7 @@
         <v>12.9354244512</v>
       </c>
       <c r="J156" t="n">
-        <v>9.99045551400002</v>
+        <v>9.990455514</v>
       </c>
       <c r="K156" t="n">
         <v>24.33797782</v>
@@ -72908,7 +72908,7 @@
         <v>102.2709689149</v>
       </c>
       <c r="R156" t="n">
-        <v>94.2203831654999</v>
+        <v>94.2203831655</v>
       </c>
       <c r="S156" t="n">
         <v>105.6631259925</v>
@@ -72931,28 +72931,28 @@
         <v>79.426607337</v>
       </c>
       <c r="D157" t="n">
-        <v>83.2437098615999</v>
+        <v>83.2437098616</v>
       </c>
       <c r="E157" t="n">
-        <v>76.0357348351999</v>
+        <v>76.0357348352</v>
       </c>
       <c r="F157" t="n">
-        <v>75.2786037112002</v>
+        <v>75.2786037112</v>
       </c>
       <c r="G157" t="n">
         <v>81.3292434318</v>
       </c>
       <c r="H157" t="n">
-        <v>58.2622085519999</v>
+        <v>58.262208552</v>
       </c>
       <c r="I157" t="n">
-        <v>57.1500997620001</v>
+        <v>57.150099762</v>
       </c>
       <c r="J157" t="n">
         <v>74.196552229</v>
       </c>
       <c r="K157" t="n">
-        <v>95.4229907883999</v>
+        <v>95.4229907884</v>
       </c>
       <c r="L157" t="n">
         <v>105.2513848296</v>
@@ -72982,7 +72982,7 @@
         <v>128.55635172</v>
       </c>
       <c r="U157" t="n">
-        <v>95.6212040694002</v>
+        <v>95.6212040694</v>
       </c>
     </row>
     <row r="158">
@@ -75012,19 +75012,19 @@
         <v>23.995902416</v>
       </c>
       <c r="Q191" t="n">
-        <v>28.3243120051313</v>
+        <v>28.3243120051</v>
       </c>
       <c r="R191" t="n">
-        <v>31.8246621324697</v>
+        <v>31.8246621325</v>
       </c>
       <c r="S191" t="n">
-        <v>28.1232490032105</v>
+        <v>28.1232490032</v>
       </c>
       <c r="T191" t="n">
-        <v>27.4264253965979</v>
+        <v>27.4264253966</v>
       </c>
       <c r="U191" t="n">
-        <v>27.8815953118036</v>
+        <v>27.8815953118</v>
       </c>
     </row>
     <row r="192">

--- a/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
+++ b/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
@@ -64,7 +64,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -160,7 +160,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -281,6 +275,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -898,7 +898,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -916,7 +916,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1084,7 +1084,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1123,16 +1123,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1279,7 +1279,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -10721,10 +10721,10 @@
         <v>1995</v>
       </c>
       <c r="D534" t="n">
-        <v>22.2092925857</v>
+        <v>6.3083445597</v>
       </c>
       <c r="E534" t="n">
-        <v>   6197</v>
+        <v>   8171</v>
       </c>
     </row>
     <row r="535">
@@ -10738,10 +10738,10 @@
         <v>1996</v>
       </c>
       <c r="D535" t="n">
-        <v>25.7044031211</v>
+        <v>14.0372072379</v>
       </c>
       <c r="E535" t="n">
-        <v>   7689</v>
+        <v>  20139</v>
       </c>
     </row>
     <row r="536">
@@ -10755,10 +10755,10 @@
         <v>1997</v>
       </c>
       <c r="D536" t="n">
-        <v>25.3474386088</v>
+        <v>9.950448695</v>
       </c>
       <c r="E536" t="n">
-        <v>   8932</v>
+        <v>  16885</v>
       </c>
     </row>
     <row r="537">
@@ -10772,10 +10772,10 @@
         <v>1998</v>
       </c>
       <c r="D537" t="n">
-        <v>23.6830942175</v>
+        <v>5.3642283678</v>
       </c>
       <c r="E537" t="n">
-        <v>   8915</v>
+        <v>  12634</v>
       </c>
     </row>
     <row r="538">
@@ -10789,10 +10789,10 @@
         <v>1999</v>
       </c>
       <c r="D538" t="n">
-        <v>21.3643312155</v>
+        <v>5.180289741</v>
       </c>
       <c r="E538" t="n">
-        <v>   8505</v>
+        <v>  12573</v>
       </c>
     </row>
     <row r="539">
@@ -10806,10 +10806,10 @@
         <v>2000</v>
       </c>
       <c r="D539" t="n">
-        <v>17.3965837758</v>
+        <v>6.2700989514</v>
       </c>
       <c r="E539" t="n">
-        <v>   8286</v>
+        <v>  14893</v>
       </c>
     </row>
     <row r="540">
@@ -10823,10 +10823,10 @@
         <v>2001</v>
       </c>
       <c r="D540" t="n">
-        <v>12.1675490192</v>
+        <v>6.306169065</v>
       </c>
       <c r="E540" t="n">
-        <v>   6256</v>
+        <v>  15650</v>
       </c>
     </row>
     <row r="541">
@@ -10840,10 +10840,10 @@
         <v>2002</v>
       </c>
       <c r="D541" t="n">
-        <v>14.7354113984</v>
+        <v>7.7975268063</v>
       </c>
       <c r="E541" t="n">
-        <v>   7084</v>
+        <v>  19459</v>
       </c>
     </row>
     <row r="542">
@@ -10857,10 +10857,10 @@
         <v>2003</v>
       </c>
       <c r="D542" t="n">
-        <v>16.2808002945</v>
+        <v>13.0501138626</v>
       </c>
       <c r="E542" t="n">
-        <v>   6795</v>
+        <v>  33678</v>
       </c>
     </row>
     <row r="543">
@@ -10874,10 +10874,10 @@
         <v>2004</v>
       </c>
       <c r="D543" t="n">
-        <v>19.2864045007</v>
+        <v>13.6539722091</v>
       </c>
       <c r="E543" t="n">
-        <v>   7181</v>
+        <v>  37313</v>
       </c>
     </row>
     <row r="544">
@@ -10891,10 +10891,10 @@
         <v>2005</v>
       </c>
       <c r="D544" t="n">
-        <v>14.4436815081</v>
+        <v>10.012108762</v>
       </c>
       <c r="E544" t="n">
-        <v>   6147</v>
+        <v>  29542</v>
       </c>
     </row>
     <row r="545">
@@ -10908,10 +10908,10 @@
         <v>2006</v>
       </c>
       <c r="D545" t="n">
-        <v>16.961544972</v>
+        <v>6.72011808</v>
       </c>
       <c r="E545" t="n">
-        <v>   6590</v>
+        <v>  20800</v>
       </c>
     </row>
     <row r="546">
@@ -10925,10 +10925,10 @@
         <v>2007</v>
       </c>
       <c r="D546" t="n">
-        <v>19.3333584444</v>
+        <v>8.283843</v>
       </c>
       <c r="E546" t="n">
-        <v>   7007</v>
+        <v>  27000</v>
       </c>
     </row>
     <row r="547">
@@ -10942,10 +10942,10 @@
         <v>2008</v>
       </c>
       <c r="D547" t="n">
-        <v>19.6316331534</v>
+        <v>8.3720299455</v>
       </c>
       <c r="E547" t="n">
-        <v>   8262</v>
+        <v>  30615</v>
       </c>
     </row>
     <row r="548">
@@ -10959,10 +10959,10 @@
         <v>2009</v>
       </c>
       <c r="D548" t="n">
-        <v>24.3179729658</v>
+        <v>9.6709728092</v>
       </c>
       <c r="E548" t="n">
-        <v>   9774</v>
+        <v>  37057</v>
       </c>
     </row>
     <row r="549">
@@ -10976,10 +10976,10 @@
         <v>2010</v>
       </c>
       <c r="D549" t="n">
-        <v>21.7653364416</v>
+        <v>10.7376596085</v>
       </c>
       <c r="E549" t="n">
-        <v>  10182</v>
+        <v>  42839</v>
       </c>
     </row>
     <row r="550">
@@ -10993,10 +10993,10 @@
         <v>2011</v>
       </c>
       <c r="D550" t="n">
-        <v>19.8855750447</v>
+        <v>11.2450422688</v>
       </c>
       <c r="E550" t="n">
-        <v>   9483</v>
+        <v>  44852</v>
       </c>
     </row>
     <row r="551">
@@ -11010,10 +11010,10 @@
         <v>2012</v>
       </c>
       <c r="D551" t="n">
-        <v>23.3418891255</v>
+        <v>13.744154072</v>
       </c>
       <c r="E551" t="n">
-        <v>  11671</v>
+        <v>  55210</v>
       </c>
     </row>
     <row r="552">
@@ -11027,10 +11027,10 @@
         <v>2013</v>
       </c>
       <c r="D552" t="n">
-        <v>27.2232526013</v>
+        <v>15.4041367062</v>
       </c>
       <c r="E552" t="n">
-        <v>  13297</v>
+        <v>  62526</v>
       </c>
     </row>
     <row r="553">
@@ -11044,10 +11044,10 @@
         <v>1995</v>
       </c>
       <c r="D553" t="n">
-        <v>6.3083445597</v>
+        <v>8.229586617</v>
       </c>
       <c r="E553" t="n">
-        <v>   8171</v>
+        <v>   2814</v>
       </c>
     </row>
     <row r="554">
@@ -11061,10 +11061,10 @@
         <v>1996</v>
       </c>
       <c r="D554" t="n">
-        <v>14.0372072379</v>
+        <v>8.3905841404</v>
       </c>
       <c r="E554" t="n">
-        <v>  20139</v>
+        <v>   2926</v>
       </c>
     </row>
     <row r="555">
@@ -11078,10 +11078,10 @@
         <v>1997</v>
       </c>
       <c r="D555" t="n">
-        <v>9.950448695</v>
+        <v>8.850416121</v>
       </c>
       <c r="E555" t="n">
-        <v>  16885</v>
+        <v>   3417</v>
       </c>
     </row>
     <row r="556">
@@ -11095,10 +11095,10 @@
         <v>1998</v>
       </c>
       <c r="D556" t="n">
-        <v>5.3642283678</v>
+        <v>6.594126402</v>
       </c>
       <c r="E556" t="n">
-        <v>  12634</v>
+        <v>   2865</v>
       </c>
     </row>
     <row r="557">
@@ -11112,10 +11112,10 @@
         <v>1999</v>
       </c>
       <c r="D557" t="n">
-        <v>5.180289741</v>
+        <v>7.5329595018</v>
       </c>
       <c r="E557" t="n">
-        <v>  12573</v>
+        <v>   3161</v>
       </c>
     </row>
     <row r="558">
@@ -11129,10 +11129,10 @@
         <v>2000</v>
       </c>
       <c r="D558" t="n">
-        <v>6.2700989514</v>
+        <v>7.0734550266</v>
       </c>
       <c r="E558" t="n">
-        <v>  14893</v>
+        <v>   3723</v>
       </c>
     </row>
     <row r="559">
@@ -11146,10 +11146,10 @@
         <v>2001</v>
       </c>
       <c r="D559" t="n">
-        <v>6.306169065</v>
+        <v>8.5210228532</v>
       </c>
       <c r="E559" t="n">
-        <v>  15650</v>
+        <v>   4708</v>
       </c>
     </row>
     <row r="560">
@@ -11163,10 +11163,10 @@
         <v>2002</v>
       </c>
       <c r="D560" t="n">
-        <v>7.7975268063</v>
+        <v>10.4357941563</v>
       </c>
       <c r="E560" t="n">
-        <v>  19459</v>
+        <v>   5659</v>
       </c>
     </row>
     <row r="561">
@@ -11180,10 +11180,10 @@
         <v>2003</v>
       </c>
       <c r="D561" t="n">
-        <v>13.0501138626</v>
+        <v>13.1027664055</v>
       </c>
       <c r="E561" t="n">
-        <v>  33678</v>
+        <v>   5947</v>
       </c>
     </row>
     <row r="562">
@@ -11197,10 +11197,10 @@
         <v>2004</v>
       </c>
       <c r="D562" t="n">
-        <v>13.6539722091</v>
+        <v>12.2948898141</v>
       </c>
       <c r="E562" t="n">
-        <v>  37313</v>
+        <v>   5149</v>
       </c>
     </row>
     <row r="563">
@@ -11214,10 +11214,10 @@
         <v>2005</v>
       </c>
       <c r="D563" t="n">
-        <v>10.012108762</v>
+        <v>12.2202927612</v>
       </c>
       <c r="E563" t="n">
-        <v>  29542</v>
+        <v>   5238</v>
       </c>
     </row>
     <row r="564">
@@ -11231,10 +11231,10 @@
         <v>2006</v>
       </c>
       <c r="D564" t="n">
-        <v>6.72011808</v>
+        <v>11.8908816408</v>
       </c>
       <c r="E564" t="n">
-        <v>  20800</v>
+        <v>   5256</v>
       </c>
     </row>
     <row r="565">
@@ -11248,10 +11248,10 @@
         <v>2007</v>
       </c>
       <c r="D565" t="n">
-        <v>8.283843</v>
+        <v>12.8947527975</v>
       </c>
       <c r="E565" t="n">
-        <v>  27000</v>
+        <v>   5275</v>
       </c>
     </row>
     <row r="566">
@@ -11265,10 +11265,10 @@
         <v>2008</v>
       </c>
       <c r="D566" t="n">
-        <v>8.3720299455</v>
+        <v>13.5641495297</v>
       </c>
       <c r="E566" t="n">
-        <v>  30615</v>
+        <v>   5357</v>
       </c>
     </row>
     <row r="567">
@@ -11282,10 +11282,10 @@
         <v>2009</v>
       </c>
       <c r="D567" t="n">
-        <v>9.6709728092</v>
+        <v>15.4416134913</v>
       </c>
       <c r="E567" t="n">
-        <v>  37057</v>
+        <v>   6683</v>
       </c>
     </row>
     <row r="568">
@@ -11299,10 +11299,10 @@
         <v>2010</v>
       </c>
       <c r="D568" t="n">
-        <v>10.7376596085</v>
+        <v>17.8754924517</v>
       </c>
       <c r="E568" t="n">
-        <v>  42839</v>
+        <v>   8333</v>
       </c>
     </row>
     <row r="569">
@@ -11316,10 +11316,10 @@
         <v>2011</v>
       </c>
       <c r="D569" t="n">
-        <v>11.2450422688</v>
+        <v>22.348298412</v>
       </c>
       <c r="E569" t="n">
-        <v>  44852</v>
+        <v>  10230</v>
       </c>
     </row>
     <row r="570">
@@ -11333,10 +11333,10 @@
         <v>2012</v>
       </c>
       <c r="D570" t="n">
-        <v>13.744154072</v>
+        <v>19.3007780944</v>
       </c>
       <c r="E570" t="n">
-        <v>  55210</v>
+        <v>   9848</v>
       </c>
     </row>
     <row r="571">
@@ -11350,10 +11350,10 @@
         <v>2013</v>
       </c>
       <c r="D571" t="n">
-        <v>15.4041367062</v>
+        <v>22.3834484384</v>
       </c>
       <c r="E571" t="n">
-        <v>  62526</v>
+        <v>  11212</v>
       </c>
     </row>
     <row r="572">
@@ -11367,10 +11367,10 @@
         <v>1995</v>
       </c>
       <c r="D572" t="n">
-        <v>8.229586617</v>
+        <v>1846.233424648</v>
       </c>
       <c r="E572" t="n">
-        <v>   2814</v>
+        <v>   1765</v>
       </c>
     </row>
     <row r="573">
@@ -11384,10 +11384,10 @@
         <v>1996</v>
       </c>
       <c r="D573" t="n">
-        <v>8.3905841404</v>
+        <v>1808.7183393908</v>
       </c>
       <c r="E573" t="n">
-        <v>   2926</v>
+        <v>   1748</v>
       </c>
     </row>
     <row r="574">
@@ -11401,10 +11401,10 @@
         <v>1997</v>
       </c>
       <c r="D574" t="n">
-        <v>8.850416121</v>
+        <v>1810.359972606</v>
       </c>
       <c r="E574" t="n">
-        <v>   3417</v>
+        <v>   1797</v>
       </c>
     </row>
     <row r="575">
@@ -11418,10 +11418,10 @@
         <v>1998</v>
       </c>
       <c r="D575" t="n">
-        <v>6.594126402</v>
+        <v>1799.722342033</v>
       </c>
       <c r="E575" t="n">
-        <v>   2865</v>
+        <v>   1910</v>
       </c>
     </row>
     <row r="576">
@@ -11435,10 +11435,10 @@
         <v>1999</v>
       </c>
       <c r="D576" t="n">
-        <v>7.5329595018</v>
+        <v>1833.4009187965</v>
       </c>
       <c r="E576" t="n">
-        <v>   3161</v>
+        <v>   1985</v>
       </c>
     </row>
     <row r="577">
@@ -11452,10 +11452,10 @@
         <v>2000</v>
       </c>
       <c r="D577" t="n">
-        <v>7.0734550266</v>
+        <v>1906.1227751868</v>
       </c>
       <c r="E577" t="n">
-        <v>   3723</v>
+        <v>   2151</v>
       </c>
     </row>
     <row r="578">
@@ -11469,10 +11469,10 @@
         <v>2001</v>
       </c>
       <c r="D578" t="n">
-        <v>8.5210228532</v>
+        <v>1920.6688393884</v>
       </c>
       <c r="E578" t="n">
-        <v>   4708</v>
+        <v>   2297</v>
       </c>
     </row>
     <row r="579">
@@ -11486,10 +11486,10 @@
         <v>2002</v>
       </c>
       <c r="D579" t="n">
-        <v>10.4357941563</v>
+        <v>1972.800483588</v>
       </c>
       <c r="E579" t="n">
-        <v>   5659</v>
+        <v>   2420</v>
       </c>
     </row>
     <row r="580">
@@ -11503,10 +11503,10 @@
         <v>2003</v>
       </c>
       <c r="D580" t="n">
-        <v>13.1027664055</v>
+        <v>2289.5042100988</v>
       </c>
       <c r="E580" t="n">
-        <v>   5947</v>
+        <v>   2591</v>
       </c>
     </row>
     <row r="581">
@@ -11520,10 +11520,10 @@
         <v>2004</v>
       </c>
       <c r="D581" t="n">
-        <v>12.2948898141</v>
+        <v>2529.1545124545</v>
       </c>
       <c r="E581" t="n">
-        <v>   5149</v>
+        <v>   2745</v>
       </c>
     </row>
     <row r="582">
@@ -11537,10 +11537,10 @@
         <v>2005</v>
       </c>
       <c r="D582" t="n">
-        <v>12.2202927612</v>
+        <v>2776.712556346</v>
       </c>
       <c r="E582" t="n">
-        <v>   5238</v>
+        <v>   2897</v>
       </c>
     </row>
     <row r="583">
@@ -11554,10 +11554,10 @@
         <v>2006</v>
       </c>
       <c r="D583" t="n">
-        <v>11.8908816408</v>
+        <v>3037.4647276457</v>
       </c>
       <c r="E583" t="n">
-        <v>   5256</v>
+        <v>   3047</v>
       </c>
     </row>
     <row r="584">
@@ -11571,10 +11571,10 @@
         <v>2007</v>
       </c>
       <c r="D584" t="n">
-        <v>12.8947527975</v>
+        <v>3286.7367584777</v>
       </c>
       <c r="E584" t="n">
-        <v>   5275</v>
+        <v>   3223</v>
       </c>
     </row>
     <row r="585">
@@ -11588,10 +11588,10 @@
         <v>2008</v>
       </c>
       <c r="D585" t="n">
-        <v>13.5641495297</v>
+        <v>3394.0087569165</v>
       </c>
       <c r="E585" t="n">
-        <v>   5357</v>
+        <v>   3435</v>
       </c>
     </row>
     <row r="586">
@@ -11605,10 +11605,10 @@
         <v>2009</v>
       </c>
       <c r="D586" t="n">
-        <v>15.4416134913</v>
+        <v>3417.5965880462</v>
       </c>
       <c r="E586" t="n">
-        <v>   6683</v>
+        <v>   3626</v>
       </c>
     </row>
     <row r="587">
@@ -11622,10 +11622,10 @@
         <v>2010</v>
       </c>
       <c r="D587" t="n">
-        <v>17.8754924517</v>
+        <v>3864.6350212988</v>
       </c>
       <c r="E587" t="n">
-        <v>   8333</v>
+        <v>   3793</v>
       </c>
     </row>
     <row r="588">
@@ -11639,10 +11639,10 @@
         <v>2011</v>
       </c>
       <c r="D588" t="n">
-        <v>22.348298412</v>
+        <v>4009.0925774612</v>
       </c>
       <c r="E588" t="n">
-        <v>  10230</v>
+        <v>   3902</v>
       </c>
     </row>
     <row r="589">
@@ -11656,10 +11656,10 @@
         <v>2012</v>
       </c>
       <c r="D589" t="n">
-        <v>19.3007780944</v>
+        <v>3960.2134903839</v>
       </c>
       <c r="E589" t="n">
-        <v>   9848</v>
+        <v>   3957</v>
       </c>
     </row>
     <row r="590">
@@ -11673,10 +11673,10 @@
         <v>2013</v>
       </c>
       <c r="D590" t="n">
-        <v>22.3834484384</v>
+        <v>3863.5385961193</v>
       </c>
       <c r="E590" t="n">
-        <v>  11212</v>
+        <v>   4031</v>
       </c>
     </row>
     <row r="591">
@@ -11690,10 +11690,10 @@
         <v>1995</v>
       </c>
       <c r="D591" t="n">
-        <v>1846.233424648</v>
+        <v>45.8265528864</v>
       </c>
       <c r="E591" t="n">
-        <v>   1765</v>
+        <v>   2574</v>
       </c>
     </row>
     <row r="592">
@@ -11707,10 +11707,10 @@
         <v>1996</v>
       </c>
       <c r="D592" t="n">
-        <v>1808.7183393908</v>
+        <v>42.6217363845</v>
       </c>
       <c r="E592" t="n">
-        <v>   1748</v>
+        <v>   2667</v>
       </c>
     </row>
     <row r="593">
@@ -11724,10 +11724,10 @@
         <v>1997</v>
       </c>
       <c r="D593" t="n">
-        <v>1810.359972606</v>
+        <v>41.1438348218</v>
       </c>
       <c r="E593" t="n">
-        <v>   1797</v>
+        <v>   2974</v>
       </c>
     </row>
     <row r="594">
@@ -11741,10 +11741,10 @@
         <v>1998</v>
       </c>
       <c r="D594" t="n">
-        <v>1799.722342033</v>
+        <v>42.7356510885</v>
       </c>
       <c r="E594" t="n">
-        <v>   1910</v>
+        <v>   3365</v>
       </c>
     </row>
     <row r="595">
@@ -11758,10 +11758,10 @@
         <v>1999</v>
       </c>
       <c r="D595" t="n">
-        <v>1833.4009187965</v>
+        <v>35.3197845639</v>
       </c>
       <c r="E595" t="n">
-        <v>   1985</v>
+        <v>   3141</v>
       </c>
     </row>
     <row r="596">
@@ -11775,10 +11775,10 @@
         <v>2000</v>
       </c>
       <c r="D596" t="n">
-        <v>1906.1227751868</v>
+        <v>33.3693733824</v>
       </c>
       <c r="E596" t="n">
-        <v>   2151</v>
+        <v>   3344</v>
       </c>
     </row>
     <row r="597">
@@ -11792,10 +11792,10 @@
         <v>2001</v>
       </c>
       <c r="D597" t="n">
-        <v>1920.6688393884</v>
+        <v>38.021491935</v>
       </c>
       <c r="E597" t="n">
-        <v>   2297</v>
+        <v>   3969</v>
       </c>
     </row>
     <row r="598">
@@ -11809,10 +11809,10 @@
         <v>2002</v>
       </c>
       <c r="D598" t="n">
-        <v>1972.800483588</v>
+        <v>41.9532997352</v>
       </c>
       <c r="E598" t="n">
-        <v>   2420</v>
+        <v>   4156</v>
       </c>
     </row>
     <row r="599">
@@ -11826,10 +11826,10 @@
         <v>2003</v>
       </c>
       <c r="D599" t="n">
-        <v>2289.5042100988</v>
+        <v>51.5773959824</v>
       </c>
       <c r="E599" t="n">
-        <v>   2591</v>
+        <v>   4336</v>
       </c>
     </row>
     <row r="600">
@@ -11843,10 +11843,10 @@
         <v>2004</v>
       </c>
       <c r="D600" t="n">
-        <v>2529.1545124545</v>
+        <v>59.8231916325</v>
       </c>
       <c r="E600" t="n">
-        <v>   2745</v>
+        <v>   4539</v>
       </c>
     </row>
     <row r="601">
@@ -11860,10 +11860,10 @@
         <v>2005</v>
       </c>
       <c r="D601" t="n">
-        <v>2776.712556346</v>
+        <v>62.9925851484</v>
       </c>
       <c r="E601" t="n">
-        <v>   2897</v>
+        <v>   4806</v>
       </c>
     </row>
     <row r="602">
@@ -11877,10 +11877,10 @@
         <v>2006</v>
       </c>
       <c r="D602" t="n">
-        <v>3037.4647276457</v>
+        <v>79.2825939048</v>
       </c>
       <c r="E602" t="n">
-        <v>   3047</v>
+        <v>   6171</v>
       </c>
     </row>
     <row r="603">
@@ -11894,10 +11894,10 @@
         <v>2007</v>
       </c>
       <c r="D603" t="n">
-        <v>3286.7367584777</v>
+        <v>82.8820721235</v>
       </c>
       <c r="E603" t="n">
-        <v>   3223</v>
+        <v>   6071</v>
       </c>
     </row>
     <row r="604">
@@ -11911,10 +11911,10 @@
         <v>2008</v>
       </c>
       <c r="D604" t="n">
-        <v>3394.0087569165</v>
+        <v>84.0679953999</v>
       </c>
       <c r="E604" t="n">
-        <v>   3435</v>
+        <v>   5937</v>
       </c>
     </row>
     <row r="605">
@@ -11928,10 +11928,10 @@
         <v>2009</v>
       </c>
       <c r="D605" t="n">
-        <v>3417.5965880462</v>
+        <v>85.9334709672</v>
       </c>
       <c r="E605" t="n">
-        <v>   3626</v>
+        <v>   6554</v>
       </c>
     </row>
     <row r="606">
@@ -11945,10 +11945,10 @@
         <v>2010</v>
       </c>
       <c r="D606" t="n">
-        <v>3864.6350212988</v>
+        <v>90.0227773336</v>
       </c>
       <c r="E606" t="n">
-        <v>   3793</v>
+        <v>   7244</v>
       </c>
     </row>
     <row r="607">
@@ -11962,10 +11962,10 @@
         <v>2011</v>
       </c>
       <c r="D607" t="n">
-        <v>4009.0925774612</v>
+        <v>90.1311613566</v>
       </c>
       <c r="E607" t="n">
-        <v>   3902</v>
+        <v>   7098</v>
       </c>
     </row>
     <row r="608">
@@ -11979,10 +11979,10 @@
         <v>2012</v>
       </c>
       <c r="D608" t="n">
-        <v>3960.2134903839</v>
+        <v>83.3081242275</v>
       </c>
       <c r="E608" t="n">
-        <v>   3957</v>
+        <v>   7145</v>
       </c>
     </row>
     <row r="609">
@@ -11996,10 +11996,10 @@
         <v>2013</v>
       </c>
       <c r="D609" t="n">
-        <v>3863.5385961193</v>
+        <v>83.8081656999</v>
       </c>
       <c r="E609" t="n">
-        <v>   4031</v>
+        <v>   7097</v>
       </c>
     </row>
     <row r="610">
@@ -12013,10 +12013,10 @@
         <v>1995</v>
       </c>
       <c r="D610" t="n">
-        <v>45.8265528864</v>
+        <v>8.4946649472</v>
       </c>
       <c r="E610" t="n">
-        <v>   2574</v>
+        <v>   2799</v>
       </c>
     </row>
     <row r="611">
@@ -12030,10 +12030,10 @@
         <v>1996</v>
       </c>
       <c r="D611" t="n">
-        <v>42.6217363845</v>
+        <v>6.8420112772</v>
       </c>
       <c r="E611" t="n">
-        <v>   2667</v>
+        <v>   2332</v>
       </c>
     </row>
     <row r="612">
@@ -12047,10 +12047,10 @@
         <v>1997</v>
       </c>
       <c r="D612" t="n">
-        <v>41.1438348218</v>
+        <v>6.3023748867</v>
       </c>
       <c r="E612" t="n">
-        <v>   2974</v>
+        <v>   2449</v>
       </c>
     </row>
     <row r="613">
@@ -12064,10 +12064,10 @@
         <v>1998</v>
       </c>
       <c r="D613" t="n">
-        <v>42.7356510885</v>
+        <v>5.77397851</v>
       </c>
       <c r="E613" t="n">
-        <v>   3365</v>
+        <v>   2342</v>
       </c>
     </row>
     <row r="614">
@@ -12081,10 +12081,10 @@
         <v>1999</v>
       </c>
       <c r="D614" t="n">
-        <v>35.3197845639</v>
+        <v>7.6426775374</v>
       </c>
       <c r="E614" t="n">
-        <v>   3141</v>
+        <v>   3314</v>
       </c>
     </row>
     <row r="615">
@@ -12098,10 +12098,10 @@
         <v>2000</v>
       </c>
       <c r="D615" t="n">
-        <v>33.3693733824</v>
+        <v>7.6864015488</v>
       </c>
       <c r="E615" t="n">
-        <v>   3344</v>
+        <v>   3848</v>
       </c>
     </row>
     <row r="616">
@@ -12115,10 +12115,10 @@
         <v>2001</v>
       </c>
       <c r="D616" t="n">
-        <v>38.021491935</v>
+        <v>6.4942737031</v>
       </c>
       <c r="E616" t="n">
-        <v>   3969</v>
+        <v>   3503</v>
       </c>
     </row>
     <row r="617">
@@ -12132,10 +12132,10 @@
         <v>2002</v>
       </c>
       <c r="D617" t="n">
-        <v>41.9532997352</v>
+        <v>7.3916323257</v>
       </c>
       <c r="E617" t="n">
-        <v>   4156</v>
+        <v>   3857</v>
       </c>
     </row>
     <row r="618">
@@ -12149,10 +12149,10 @@
         <v>2003</v>
       </c>
       <c r="D618" t="n">
-        <v>51.5773959824</v>
+        <v>8.2022578209</v>
       </c>
       <c r="E618" t="n">
-        <v>   4336</v>
+        <v>   3681</v>
       </c>
     </row>
     <row r="619">
@@ -12166,10 +12166,10 @@
         <v>2004</v>
       </c>
       <c r="D619" t="n">
-        <v>59.8231916325</v>
+        <v>7.9182689633</v>
       </c>
       <c r="E619" t="n">
-        <v>   4539</v>
+        <v>   3239</v>
       </c>
     </row>
     <row r="620">
@@ -12183,10 +12183,10 @@
         <v>2005</v>
       </c>
       <c r="D620" t="n">
-        <v>62.9925851484</v>
+        <v>9.2441323128</v>
       </c>
       <c r="E620" t="n">
-        <v>   4806</v>
+        <v>   3916</v>
       </c>
     </row>
     <row r="621">
@@ -12200,10 +12200,10 @@
         <v>2006</v>
       </c>
       <c r="D621" t="n">
-        <v>79.2825939048</v>
+        <v>8.6950100241</v>
       </c>
       <c r="E621" t="n">
-        <v>   6171</v>
+        <v>   3771</v>
       </c>
     </row>
     <row r="622">
@@ -12217,10 +12217,10 @@
         <v>2007</v>
       </c>
       <c r="D622" t="n">
-        <v>82.8820721235</v>
+        <v>11.285882331</v>
       </c>
       <c r="E622" t="n">
-        <v>   6071</v>
+        <v>   4569</v>
       </c>
     </row>
     <row r="623">
@@ -12234,10 +12234,10 @@
         <v>2008</v>
       </c>
       <c r="D623" t="n">
-        <v>84.0679953999</v>
+        <v>12.008468079</v>
       </c>
       <c r="E623" t="n">
-        <v>   5937</v>
+        <v>   4866</v>
       </c>
     </row>
     <row r="624">
@@ -12251,10 +12251,10 @@
         <v>2009</v>
       </c>
       <c r="D624" t="n">
-        <v>85.9334709672</v>
+        <v>7.429642784</v>
       </c>
       <c r="E624" t="n">
-        <v>   6554</v>
+        <v>   3284</v>
       </c>
     </row>
     <row r="625">
@@ -12268,10 +12268,10 @@
         <v>2010</v>
       </c>
       <c r="D625" t="n">
-        <v>90.0227773336</v>
+        <v>9.6805183901</v>
       </c>
       <c r="E625" t="n">
-        <v>   7244</v>
+        <v>   4579</v>
       </c>
     </row>
     <row r="626">
@@ -12285,10 +12285,10 @@
         <v>2011</v>
       </c>
       <c r="D626" t="n">
-        <v>90.1311613566</v>
+        <v>9.7713378277</v>
       </c>
       <c r="E626" t="n">
-        <v>   7098</v>
+        <v>   4489</v>
       </c>
     </row>
     <row r="627">
@@ -12302,10 +12302,10 @@
         <v>2012</v>
       </c>
       <c r="D627" t="n">
-        <v>83.3081242275</v>
+        <v>9.2257065615</v>
       </c>
       <c r="E627" t="n">
-        <v>   7145</v>
+        <v>   4705</v>
       </c>
     </row>
     <row r="628">
@@ -12319,10 +12319,10 @@
         <v>2013</v>
       </c>
       <c r="D628" t="n">
-        <v>83.8081656999</v>
+        <v>6.116326848</v>
       </c>
       <c r="E628" t="n">
-        <v>   7097</v>
+        <v>   3240</v>
       </c>
     </row>
     <row r="629">
@@ -12336,10 +12336,10 @@
         <v>1995</v>
       </c>
       <c r="D629" t="n">
-        <v>8.4946649472</v>
+        <v>10.2067691538</v>
       </c>
       <c r="E629" t="n">
-        <v>   2799</v>
+        <v>   2073</v>
       </c>
     </row>
     <row r="630">
@@ -12353,10 +12353,10 @@
         <v>1996</v>
       </c>
       <c r="D630" t="n">
-        <v>6.8420112772</v>
+        <v>10.0182371442</v>
       </c>
       <c r="E630" t="n">
-        <v>   2332</v>
+        <v>   2326</v>
       </c>
     </row>
     <row r="631">
@@ -12370,10 +12370,10 @@
         <v>1997</v>
       </c>
       <c r="D631" t="n">
-        <v>6.3023748867</v>
+        <v>8.5689717888</v>
       </c>
       <c r="E631" t="n">
-        <v>   2449</v>
+        <v>   2356</v>
       </c>
     </row>
     <row r="632">
@@ -12387,10 +12387,10 @@
         <v>1998</v>
       </c>
       <c r="D632" t="n">
-        <v>5.77397851</v>
+        <v>7.4550745632</v>
       </c>
       <c r="E632" t="n">
-        <v>   2342</v>
+        <v>   2211</v>
       </c>
     </row>
     <row r="633">
@@ -12404,10 +12404,10 @@
         <v>1999</v>
       </c>
       <c r="D633" t="n">
-        <v>7.6426775374</v>
+        <v>8.2196964378</v>
       </c>
       <c r="E633" t="n">
-        <v>   3314</v>
+        <v>   2349</v>
       </c>
     </row>
     <row r="634">
@@ -12421,10 +12421,10 @@
         <v>2000</v>
       </c>
       <c r="D634" t="n">
-        <v>7.6864015488</v>
+        <v>9.1223984347</v>
       </c>
       <c r="E634" t="n">
-        <v>   3848</v>
+        <v>   3169</v>
       </c>
     </row>
     <row r="635">
@@ -12438,10 +12438,10 @@
         <v>2001</v>
       </c>
       <c r="D635" t="n">
-        <v>6.4942737031</v>
+        <v>8.5396291524</v>
       </c>
       <c r="E635" t="n">
-        <v>   3503</v>
+        <v>   3483</v>
       </c>
     </row>
     <row r="636">
@@ -12455,10 +12455,10 @@
         <v>2002</v>
       </c>
       <c r="D636" t="n">
-        <v>7.3916323257</v>
+        <v>9.7340872185</v>
       </c>
       <c r="E636" t="n">
-        <v>   3857</v>
+        <v>   3837</v>
       </c>
     </row>
     <row r="637">
@@ -12472,10 +12472,10 @@
         <v>2003</v>
       </c>
       <c r="D637" t="n">
-        <v>8.2022578209</v>
+        <v>14.0403173875</v>
       </c>
       <c r="E637" t="n">
-        <v>   3681</v>
+        <v>   4625</v>
       </c>
     </row>
     <row r="638">
@@ -12489,10 +12489,10 @@
         <v>2004</v>
       </c>
       <c r="D638" t="n">
-        <v>7.9182689633</v>
+        <v>16.8784415763</v>
       </c>
       <c r="E638" t="n">
-        <v>   3239</v>
+        <v>   5549</v>
       </c>
     </row>
     <row r="639">
@@ -12506,10 +12506,10 @@
         <v>2005</v>
       </c>
       <c r="D639" t="n">
-        <v>9.2441323128</v>
+        <v>13.5049608234</v>
       </c>
       <c r="E639" t="n">
-        <v>   3916</v>
+        <v>   5454</v>
       </c>
     </row>
     <row r="640">
@@ -12523,10 +12523,10 @@
         <v>2006</v>
       </c>
       <c r="D640" t="n">
-        <v>8.6950100241</v>
+        <v>9.6015377686</v>
       </c>
       <c r="E640" t="n">
-        <v>   3771</v>
+        <v>   4231</v>
       </c>
     </row>
     <row r="641">
@@ -12540,10 +12540,10 @@
         <v>2007</v>
       </c>
       <c r="D641" t="n">
-        <v>11.285882331</v>
+        <v>11.605934736</v>
       </c>
       <c r="E641" t="n">
-        <v>   4569</v>
+        <v>   4840</v>
       </c>
     </row>
     <row r="642">
@@ -12557,10 +12557,10 @@
         <v>2008</v>
       </c>
       <c r="D642" t="n">
-        <v>12.008468079</v>
+        <v>9.925273122</v>
       </c>
       <c r="E642" t="n">
-        <v>   4866</v>
+        <v>   4188</v>
       </c>
     </row>
     <row r="643">
@@ -12574,10 +12574,10 @@
         <v>2009</v>
       </c>
       <c r="D643" t="n">
-        <v>7.429642784</v>
+        <v>11.7348995764</v>
       </c>
       <c r="E643" t="n">
-        <v>   3284</v>
+        <v>   4732</v>
       </c>
     </row>
     <row r="644">
@@ -12591,10 +12591,10 @@
         <v>2010</v>
       </c>
       <c r="D644" t="n">
-        <v>9.6805183901</v>
+        <v>11.8515060459</v>
       </c>
       <c r="E644" t="n">
-        <v>   4579</v>
+        <v>   5337</v>
       </c>
     </row>
     <row r="645">
@@ -12608,10 +12608,10 @@
         <v>2011</v>
       </c>
       <c r="D645" t="n">
-        <v>9.7713378277</v>
+        <v>17.3624986304</v>
       </c>
       <c r="E645" t="n">
-        <v>   4489</v>
+        <v>   8096</v>
       </c>
     </row>
     <row r="646">
@@ -12625,10 +12625,10 @@
         <v>2012</v>
       </c>
       <c r="D646" t="n">
-        <v>9.2257065615</v>
+        <v>14.1362920189</v>
       </c>
       <c r="E646" t="n">
-        <v>   4705</v>
+        <v>   7213</v>
       </c>
     </row>
     <row r="647">
@@ -12642,10 +12642,10 @@
         <v>2013</v>
       </c>
       <c r="D647" t="n">
-        <v>6.116326848</v>
+        <v>13.597891429</v>
       </c>
       <c r="E647" t="n">
-        <v>   3240</v>
+        <v>   6778</v>
       </c>
     </row>
     <row r="648">
@@ -12659,10 +12659,10 @@
         <v>1995</v>
       </c>
       <c r="D648" t="n">
-        <v>10.2067691538</v>
+        <v>188.6998068852</v>
       </c>
       <c r="E648" t="n">
-        <v>   2073</v>
+        <v>  34242</v>
       </c>
     </row>
     <row r="649">
@@ -12676,10 +12676,10 @@
         <v>1996</v>
       </c>
       <c r="D649" t="n">
-        <v>10.0182371442</v>
+        <v>198.7693018782</v>
       </c>
       <c r="E649" t="n">
-        <v>   2326</v>
+        <v>  38453</v>
       </c>
     </row>
     <row r="650">
@@ -12693,10 +12693,10 @@
         <v>1997</v>
       </c>
       <c r="D650" t="n">
-        <v>8.5689717888</v>
+        <v>203.5226374576</v>
       </c>
       <c r="E650" t="n">
-        <v>   2356</v>
+        <v>  41726</v>
       </c>
     </row>
     <row r="651">
@@ -12710,10 +12710,10 @@
         <v>1998</v>
       </c>
       <c r="D651" t="n">
-        <v>7.4550745632</v>
+        <v>197.850284721</v>
       </c>
       <c r="E651" t="n">
-        <v>   2211</v>
+        <v>  45495</v>
       </c>
     </row>
     <row r="652">
@@ -12727,10 +12727,10 @@
         <v>1999</v>
       </c>
       <c r="D652" t="n">
-        <v>8.2196964378</v>
+        <v>182.4756396507</v>
       </c>
       <c r="E652" t="n">
-        <v>   2349</v>
+        <v>  47641</v>
       </c>
     </row>
     <row r="653">
@@ -12744,10 +12744,10 @@
         <v>2000</v>
       </c>
       <c r="D653" t="n">
-        <v>9.1223984347</v>
+        <v>196.1673839712</v>
       </c>
       <c r="E653" t="n">
-        <v>   3169</v>
+        <v>  57132</v>
       </c>
     </row>
     <row r="654">
@@ -12761,10 +12761,10 @@
         <v>2001</v>
       </c>
       <c r="D654" t="n">
-        <v>8.5396291524</v>
+        <v>201.6766936632</v>
       </c>
       <c r="E654" t="n">
-        <v>   3483</v>
+        <v>  71967</v>
       </c>
     </row>
     <row r="655">
@@ -12778,10 +12778,10 @@
         <v>2002</v>
       </c>
       <c r="D655" t="n">
-        <v>9.7340872185</v>
+        <v>177.0495450615</v>
       </c>
       <c r="E655" t="n">
-        <v>   3837</v>
+        <v>  71595</v>
       </c>
     </row>
     <row r="656">
@@ -12795,10 +12795,10 @@
         <v>2003</v>
       </c>
       <c r="D656" t="n">
-        <v>14.0403173875</v>
+        <v>186.494601425</v>
       </c>
       <c r="E656" t="n">
-        <v>   4625</v>
+        <v>  79750</v>
       </c>
     </row>
     <row r="657">
@@ -12812,10 +12812,10 @@
         <v>2004</v>
       </c>
       <c r="D657" t="n">
-        <v>16.8784415763</v>
+        <v>218.0102865748</v>
       </c>
       <c r="E657" t="n">
-        <v>   5549</v>
+        <v>  88502</v>
       </c>
     </row>
     <row r="658">
@@ -12829,10 +12829,10 @@
         <v>2005</v>
       </c>
       <c r="D658" t="n">
-        <v>13.5049608234</v>
+        <v>237.3661610735</v>
       </c>
       <c r="E658" t="n">
-        <v>   5454</v>
+        <v>  94769</v>
       </c>
     </row>
     <row r="659">
@@ -12846,10 +12846,10 @@
         <v>2006</v>
       </c>
       <c r="D659" t="n">
-        <v>9.6015377686</v>
+        <v>263.6207114751</v>
       </c>
       <c r="E659" t="n">
-        <v>   4231</v>
+        <v> 112219</v>
       </c>
     </row>
     <row r="660">
@@ -12863,10 +12863,10 @@
         <v>2007</v>
       </c>
       <c r="D660" t="n">
-        <v>11.605934736</v>
+        <v>294.9232496364</v>
       </c>
       <c r="E660" t="n">
-        <v>   4840</v>
+        <v> 129591</v>
       </c>
     </row>
     <row r="661">
@@ -12880,10 +12880,10 @@
         <v>2008</v>
       </c>
       <c r="D661" t="n">
-        <v>9.925273122</v>
+        <v>335.136454</v>
       </c>
       <c r="E661" t="n">
-        <v>   4188</v>
+        <v> 148000</v>
       </c>
     </row>
     <row r="662">
@@ -12897,10 +12897,10 @@
         <v>2009</v>
       </c>
       <c r="D662" t="n">
-        <v>11.7348995764</v>
+        <v>364.1284761471</v>
       </c>
       <c r="E662" t="n">
-        <v>   4732</v>
+        <v> 178669</v>
       </c>
     </row>
     <row r="663">
@@ -12914,10 +12914,10 @@
         <v>2010</v>
       </c>
       <c r="D663" t="n">
-        <v>11.8515060459</v>
+        <v>399.5596678104</v>
       </c>
       <c r="E663" t="n">
-        <v>   5337</v>
+        <v> 194616</v>
       </c>
     </row>
     <row r="664">
@@ -12931,10 +12931,10 @@
         <v>2011</v>
       </c>
       <c r="D664" t="n">
-        <v>17.3624986304</v>
+        <v>445.9496652</v>
       </c>
       <c r="E664" t="n">
-        <v>   8096</v>
+        <v> 213000</v>
       </c>
     </row>
     <row r="665">
@@ -12948,10 +12948,10 @@
         <v>2012</v>
       </c>
       <c r="D665" t="n">
-        <v>14.1362920189</v>
+        <v>479.587428503</v>
       </c>
       <c r="E665" t="n">
-        <v>   7213</v>
+        <v> 233315</v>
       </c>
     </row>
     <row r="666">
@@ -12965,10 +12965,10 @@
         <v>2013</v>
       </c>
       <c r="D666" t="n">
-        <v>13.597891429</v>
+        <v>511.5186387309</v>
       </c>
       <c r="E666" t="n">
-        <v>   6778</v>
+        <v> 257559</v>
       </c>
     </row>
     <row r="667">
@@ -12982,10 +12982,10 @@
         <v>1995</v>
       </c>
       <c r="D667" t="n">
-        <v>188.6998068852</v>
+        <v>6.4496086644</v>
       </c>
       <c r="E667" t="n">
-        <v>  34242</v>
+        <v>     31</v>
       </c>
     </row>
     <row r="668">
@@ -12999,10 +12999,10 @@
         <v>1996</v>
       </c>
       <c r="D668" t="n">
-        <v>198.7693018782</v>
+        <v>7.4460528838</v>
       </c>
       <c r="E668" t="n">
-        <v>  38453</v>
+        <v>     38</v>
       </c>
     </row>
     <row r="669">
@@ -13016,10 +13016,10 @@
         <v>1997</v>
       </c>
       <c r="D669" t="n">
-        <v>203.5226374576</v>
+        <v>8.5838313132</v>
       </c>
       <c r="E669" t="n">
-        <v>  41726</v>
+        <v>     44</v>
       </c>
     </row>
     <row r="670">
@@ -13033,10 +13033,10 @@
         <v>1998</v>
       </c>
       <c r="D670" t="n">
-        <v>197.850284721</v>
+        <v>10.730934918</v>
       </c>
       <c r="E670" t="n">
-        <v>  45495</v>
+        <v>     54</v>
       </c>
     </row>
     <row r="671">
@@ -13050,10 +13050,10 @@
         <v>1999</v>
       </c>
       <c r="D671" t="n">
-        <v>182.4756396507</v>
+        <v>11.9806636286</v>
       </c>
       <c r="E671" t="n">
-        <v>  47641</v>
+        <v>     59</v>
       </c>
     </row>
     <row r="672">
@@ -13067,10 +13067,10 @@
         <v>2000</v>
       </c>
       <c r="D672" t="n">
-        <v>196.1673839712</v>
+        <v>11.7810981734</v>
       </c>
       <c r="E672" t="n">
-        <v>  57132</v>
+        <v>     58</v>
       </c>
     </row>
     <row r="673">
@@ -13084,10 +13084,10 @@
         <v>2001</v>
       </c>
       <c r="D673" t="n">
-        <v>201.6766936632</v>
+        <v>12.3549868096</v>
       </c>
       <c r="E673" t="n">
-        <v>  71967</v>
+        <v>     62</v>
       </c>
     </row>
     <row r="674">
@@ -13101,10 +13101,10 @@
         <v>2002</v>
       </c>
       <c r="D674" t="n">
-        <v>177.0495450615</v>
+        <v>14.166210204</v>
       </c>
       <c r="E674" t="n">
-        <v>  71595</v>
+        <v>     72</v>
       </c>
     </row>
     <row r="675">
@@ -13118,10 +13118,10 @@
         <v>2003</v>
       </c>
       <c r="D675" t="n">
-        <v>186.494601425</v>
+        <v>16.224558073</v>
       </c>
       <c r="E675" t="n">
-        <v>  79750</v>
+        <v>     85</v>
       </c>
     </row>
     <row r="676">
@@ -13135,10 +13135,10 @@
         <v>2004</v>
       </c>
       <c r="D676" t="n">
-        <v>218.0102865748</v>
+        <v>17.4808442172</v>
       </c>
       <c r="E676" t="n">
-        <v>  88502</v>
+        <v>     98</v>
       </c>
     </row>
     <row r="677">
@@ -13152,10 +13152,10 @@
         <v>2005</v>
       </c>
       <c r="D677" t="n">
-        <v>237.3661610735</v>
+        <v>19.9769399536</v>
       </c>
       <c r="E677" t="n">
-        <v>  94769</v>
+        <v>    116</v>
       </c>
     </row>
     <row r="678">
@@ -13169,10 +13169,10 @@
         <v>2006</v>
       </c>
       <c r="D678" t="n">
-        <v>263.6207114751</v>
+        <v>21.480903488</v>
       </c>
       <c r="E678" t="n">
-        <v> 112219</v>
+        <v>    128</v>
       </c>
     </row>
     <row r="679">
@@ -13186,10 +13186,10 @@
         <v>2007</v>
       </c>
       <c r="D679" t="n">
-        <v>294.9232496364</v>
+        <v>25.17185934</v>
       </c>
       <c r="E679" t="n">
-        <v> 129591</v>
+        <v>    150</v>
       </c>
     </row>
     <row r="680">
@@ -13203,10 +13203,10 @@
         <v>2008</v>
       </c>
       <c r="D680" t="n">
-        <v>335.136454</v>
+        <v>30.4223153152</v>
       </c>
       <c r="E680" t="n">
-        <v> 148000</v>
+        <v>    179</v>
       </c>
     </row>
     <row r="681">
@@ -13220,10 +13220,10 @@
         <v>2009</v>
       </c>
       <c r="D681" t="n">
-        <v>364.1284761471</v>
+        <v>41.049772944</v>
       </c>
       <c r="E681" t="n">
-        <v> 178669</v>
+        <v>    240</v>
       </c>
     </row>
     <row r="682">
@@ -13237,10 +13237,10 @@
         <v>2010</v>
       </c>
       <c r="D682" t="n">
-        <v>399.5596678104</v>
+        <v>47.017695849</v>
       </c>
       <c r="E682" t="n">
-        <v> 194616</v>
+        <v>    285</v>
       </c>
     </row>
     <row r="683">
@@ -13254,10 +13254,10 @@
         <v>2011</v>
       </c>
       <c r="D683" t="n">
-        <v>445.9496652</v>
+        <v>52.497418802</v>
       </c>
       <c r="E683" t="n">
-        <v> 213000</v>
+        <v>    326</v>
       </c>
     </row>
     <row r="684">
@@ -13271,10 +13271,10 @@
         <v>2012</v>
       </c>
       <c r="D684" t="n">
-        <v>479.587428503</v>
+        <v>57.6644322072</v>
       </c>
       <c r="E684" t="n">
-        <v> 233315</v>
+        <v>    364</v>
       </c>
     </row>
     <row r="685">
@@ -13288,10 +13288,10 @@
         <v>2013</v>
       </c>
       <c r="D685" t="n">
-        <v>511.5186387309</v>
+        <v>61.17610356</v>
       </c>
       <c r="E685" t="n">
-        <v> 257559</v>
+        <v>    390</v>
       </c>
     </row>
     <row r="686">
@@ -13305,10 +13305,10 @@
         <v>1995</v>
       </c>
       <c r="D686" t="n">
-        <v>6.4496086644</v>
+        <v>154.012788748</v>
       </c>
       <c r="E686" t="n">
-        <v>     31</v>
+        <v>  36868</v>
       </c>
     </row>
     <row r="687">
@@ -13322,10 +13322,10 @@
         <v>1996</v>
       </c>
       <c r="D687" t="n">
-        <v>7.4460528838</v>
+        <v>190.923899319</v>
       </c>
       <c r="E687" t="n">
-        <v>     38</v>
+        <v>  58830</v>
       </c>
     </row>
     <row r="688">
@@ -13339,10 +13339,10 @@
         <v>1997</v>
       </c>
       <c r="D688" t="n">
-        <v>8.5838313132</v>
+        <v>147.9454629042</v>
       </c>
       <c r="E688" t="n">
-        <v>     44</v>
+        <v>  68534</v>
       </c>
     </row>
     <row r="689">
@@ -13356,10 +13356,10 @@
         <v>1998</v>
       </c>
       <c r="D689" t="n">
-        <v>10.730934918</v>
+        <v>111.0807296208</v>
       </c>
       <c r="E689" t="n">
-        <v>     54</v>
+        <v>  70407</v>
       </c>
     </row>
     <row r="690">
@@ -13373,10 +13373,10 @@
         <v>1999</v>
       </c>
       <c r="D690" t="n">
-        <v>11.9806636286</v>
+        <v>87.080395038</v>
       </c>
       <c r="E690" t="n">
-        <v>     59</v>
+        <v>  75530</v>
       </c>
     </row>
     <row r="691">
@@ -13390,10 +13390,10 @@
         <v>2000</v>
       </c>
       <c r="D691" t="n">
-        <v>11.7810981734</v>
+        <v>75.0258303915</v>
       </c>
       <c r="E691" t="n">
-        <v>     58</v>
+        <v>  81295</v>
       </c>
     </row>
     <row r="692">
@@ -13407,10 +13407,10 @@
         <v>2001</v>
       </c>
       <c r="D692" t="n">
-        <v>12.3549868096</v>
+        <v>55.8366558384</v>
       </c>
       <c r="E692" t="n">
-        <v>     62</v>
+        <v>  70982</v>
       </c>
     </row>
     <row r="693">
@@ -13424,10 +13424,10 @@
         <v>2002</v>
       </c>
       <c r="D693" t="n">
-        <v>14.166210204</v>
+        <v>50.7120491361</v>
       </c>
       <c r="E693" t="n">
-        <v>     72</v>
+        <v>  74393</v>
       </c>
     </row>
     <row r="694">
@@ -13441,10 +13441,10 @@
         <v>2003</v>
       </c>
       <c r="D694" t="n">
-        <v>16.224558073</v>
+        <v>48.1009020852</v>
       </c>
       <c r="E694" t="n">
-        <v>     85</v>
+        <v>  86622</v>
       </c>
     </row>
     <row r="695">
@@ -13458,10 +13458,10 @@
         <v>2004</v>
       </c>
       <c r="D695" t="n">
-        <v>17.4808442172</v>
+        <v>38.2875549222</v>
       </c>
       <c r="E695" t="n">
-        <v>     98</v>
+        <v>  67569</v>
       </c>
     </row>
     <row r="696">
@@ -13475,10 +13475,10 @@
         <v>2005</v>
       </c>
       <c r="D696" t="n">
-        <v>19.9769399536</v>
+        <v>49.7000086752</v>
       </c>
       <c r="E696" t="n">
-        <v>    116</v>
+        <v>  81744</v>
       </c>
     </row>
     <row r="697">
@@ -13492,10 +13492,10 @@
         <v>2006</v>
       </c>
       <c r="D697" t="n">
-        <v>21.480903488</v>
+        <v>49.0964662608</v>
       </c>
       <c r="E697" t="n">
-        <v>    128</v>
+        <v>  86898</v>
       </c>
     </row>
     <row r="698">
@@ -13509,10 +13509,10 @@
         <v>2007</v>
       </c>
       <c r="D698" t="n">
-        <v>25.17185934</v>
+        <v>55.813284072</v>
       </c>
       <c r="E698" t="n">
-        <v>    150</v>
+        <v>  91335</v>
       </c>
     </row>
     <row r="699">
@@ -13526,10 +13526,10 @@
         <v>2008</v>
       </c>
       <c r="D699" t="n">
-        <v>30.4223153152</v>
+        <v>54.7822319276</v>
       </c>
       <c r="E699" t="n">
-        <v>    179</v>
+        <v>  91291</v>
       </c>
     </row>
     <row r="700">
@@ -13543,10 +13543,10 @@
         <v>2009</v>
       </c>
       <c r="D700" t="n">
-        <v>41.049772944</v>
+        <v>46.635562681</v>
       </c>
       <c r="E700" t="n">
-        <v>    240</v>
+        <v>  88145</v>
       </c>
     </row>
     <row r="701">
@@ -13560,10 +13560,10 @@
         <v>2010</v>
       </c>
       <c r="D701" t="n">
-        <v>47.017695849</v>
+        <v>54.08874324</v>
       </c>
       <c r="E701" t="n">
-        <v>    285</v>
+        <v>  93400</v>
       </c>
     </row>
     <row r="702">
@@ -13577,10 +13577,10 @@
         <v>2011</v>
       </c>
       <c r="D702" t="n">
-        <v>52.497418802</v>
+        <v>59.8511190883</v>
       </c>
       <c r="E702" t="n">
-        <v>    326</v>
+        <v> 107669</v>
       </c>
     </row>
     <row r="703">
@@ -13594,10 +13594,10 @@
         <v>2012</v>
       </c>
       <c r="D703" t="n">
-        <v>57.6644322072</v>
+        <v>64.2691001295</v>
       </c>
       <c r="E703" t="n">
-        <v>    364</v>
+        <v> 115485</v>
       </c>
     </row>
     <row r="704">
@@ -13611,10 +13611,10 @@
         <v>2013</v>
       </c>
       <c r="D704" t="n">
-        <v>61.17610356</v>
+        <v>62.4330761073001</v>
       </c>
       <c r="E704" t="n">
-        <v>    390</v>
+        <v> 118623</v>
       </c>
     </row>
     <row r="705">
@@ -13628,10 +13628,10 @@
         <v>1995</v>
       </c>
       <c r="D705" t="n">
-        <v>154.012788748</v>
+        <v>27.1397314226</v>
       </c>
       <c r="E705" t="n">
-        <v>  36868</v>
+        <v>   5366</v>
       </c>
     </row>
     <row r="706">
@@ -13645,10 +13645,10 @@
         <v>1996</v>
       </c>
       <c r="D706" t="n">
-        <v>190.923899319</v>
+        <v>23.960711152</v>
       </c>
       <c r="E706" t="n">
-        <v>  58830</v>
+        <v>   5026</v>
       </c>
     </row>
     <row r="707">
@@ -13662,10 +13662,10 @@
         <v>1997</v>
       </c>
       <c r="D707" t="n">
-        <v>147.9454629042</v>
+        <v>20.3692845216</v>
       </c>
       <c r="E707" t="n">
-        <v>  68534</v>
+        <v>   4902</v>
       </c>
     </row>
     <row r="708">
@@ -13679,10 +13679,10 @@
         <v>1998</v>
       </c>
       <c r="D708" t="n">
-        <v>111.0807296208</v>
+        <v>16.7740456169</v>
       </c>
       <c r="E708" t="n">
-        <v>  70407</v>
+        <v>   4147</v>
       </c>
     </row>
     <row r="709">
@@ -13696,10 +13696,10 @@
         <v>1999</v>
       </c>
       <c r="D709" t="n">
-        <v>87.080395038</v>
+        <v>14.411669888</v>
       </c>
       <c r="E709" t="n">
-        <v>  75530</v>
+        <v>   3920</v>
       </c>
     </row>
     <row r="710">
@@ -13713,10 +13713,10 @@
         <v>2000</v>
       </c>
       <c r="D710" t="n">
-        <v>75.0258303915</v>
+        <v>9.5374789822</v>
       </c>
       <c r="E710" t="n">
-        <v>  81295</v>
+        <v>   3107</v>
       </c>
     </row>
     <row r="711">
@@ -13730,10 +13730,10 @@
         <v>2001</v>
       </c>
       <c r="D711" t="n">
-        <v>55.8366558384</v>
+        <v>6.7009279168</v>
       </c>
       <c r="E711" t="n">
-        <v>  70982</v>
+        <v>   2444</v>
       </c>
     </row>
     <row r="712">
@@ -13747,10 +13747,10 @@
         <v>2002</v>
       </c>
       <c r="D712" t="n">
-        <v>50.7120491361</v>
+        <v>10.7625139356</v>
       </c>
       <c r="E712" t="n">
-        <v>  74393</v>
+        <v>   3873</v>
       </c>
     </row>
     <row r="713">
@@ -13764,10 +13764,10 @@
         <v>2003</v>
       </c>
       <c r="D713" t="n">
-        <v>48.1009020852</v>
+        <v>13.940092954</v>
       </c>
       <c r="E713" t="n">
-        <v>  86622</v>
+        <v>   4405</v>
       </c>
     </row>
     <row r="714">
@@ -13781,10 +13781,10 @@
         <v>2004</v>
       </c>
       <c r="D714" t="n">
-        <v>38.2875549222</v>
+        <v>17.135373253</v>
       </c>
       <c r="E714" t="n">
-        <v>  67569</v>
+        <v>   5009</v>
       </c>
     </row>
     <row r="715">
@@ -13798,10 +13798,10 @@
         <v>2005</v>
       </c>
       <c r="D715" t="n">
-        <v>49.7000086752</v>
+        <v>19.0940036096</v>
       </c>
       <c r="E715" t="n">
-        <v>  81744</v>
+        <v>   5696</v>
       </c>
     </row>
     <row r="716">
@@ -13815,10 +13815,10 @@
         <v>2006</v>
       </c>
       <c r="D716" t="n">
-        <v>49.0964662608</v>
+        <v>21.4629469521</v>
       </c>
       <c r="E716" t="n">
-        <v>  86898</v>
+        <v>   6477</v>
       </c>
     </row>
     <row r="717">
@@ -13832,10 +13832,10 @@
         <v>2007</v>
       </c>
       <c r="D717" t="n">
-        <v>55.813284072</v>
+        <v>25.2846931288</v>
       </c>
       <c r="E717" t="n">
-        <v>  91335</v>
+        <v>   7364</v>
       </c>
     </row>
     <row r="718">
@@ -13849,10 +13849,10 @@
         <v>2008</v>
       </c>
       <c r="D718" t="n">
-        <v>54.7822319276</v>
+        <v>29.2973400424</v>
       </c>
       <c r="E718" t="n">
-        <v>  91291</v>
+        <v>   8374</v>
       </c>
     </row>
     <row r="719">
@@ -13866,10 +13866,10 @@
         <v>2009</v>
       </c>
       <c r="D719" t="n">
-        <v>46.635562681</v>
+        <v>15.1870818177</v>
       </c>
       <c r="E719" t="n">
-        <v>  88145</v>
+        <v>   4797</v>
       </c>
     </row>
     <row r="720">
@@ -13883,10 +13883,10 @@
         <v>2010</v>
       </c>
       <c r="D720" t="n">
-        <v>54.08874324</v>
+        <v>12.108946876</v>
       </c>
       <c r="E720" t="n">
-        <v>  93400</v>
+        <v>   4196</v>
       </c>
     </row>
     <row r="721">
@@ -13900,10 +13900,10 @@
         <v>2011</v>
       </c>
       <c r="D721" t="n">
-        <v>59.8511190883</v>
+        <v>14.2395770447</v>
       </c>
       <c r="E721" t="n">
-        <v> 107669</v>
+        <v>   4909</v>
       </c>
     </row>
     <row r="722">
@@ -13917,10 +13917,10 @@
         <v>2012</v>
       </c>
       <c r="D722" t="n">
-        <v>64.2691001295</v>
+        <v>21.0615380734</v>
       </c>
       <c r="E722" t="n">
-        <v> 115485</v>
+        <v>   8063</v>
       </c>
     </row>
     <row r="723">
@@ -13934,10 +13934,10 @@
         <v>2013</v>
       </c>
       <c r="D723" t="n">
-        <v>62.4330761073001</v>
+        <v>16.3675432096</v>
       </c>
       <c r="E723" t="n">
-        <v> 118623</v>
+        <v>   6248</v>
       </c>
     </row>
     <row r="724">
@@ -13951,10 +13951,10 @@
         <v>1995</v>
       </c>
       <c r="D724" t="n">
-        <v>27.1397314226</v>
+        <v>50.6367770163</v>
       </c>
       <c r="E724" t="n">
-        <v>   5366</v>
+        <v>   7283</v>
       </c>
     </row>
     <row r="725">
@@ -13968,10 +13968,10 @@
         <v>1996</v>
       </c>
       <c r="D725" t="n">
-        <v>23.960711152</v>
+        <v>45.9733621854</v>
       </c>
       <c r="E725" t="n">
-        <v>   5026</v>
+        <v>   7998</v>
       </c>
     </row>
     <row r="726">
@@ -13985,10 +13985,10 @@
         <v>1997</v>
       </c>
       <c r="D726" t="n">
-        <v>20.3692845216</v>
+        <v>43.2375876445</v>
       </c>
       <c r="E726" t="n">
-        <v>   4902</v>
+        <v>   9005</v>
       </c>
     </row>
     <row r="727">
@@ -14002,10 +14002,10 @@
         <v>1998</v>
       </c>
       <c r="D727" t="n">
-        <v>16.7740456169</v>
+        <v>50.030975232</v>
       </c>
       <c r="E727" t="n">
-        <v>   4147</v>
+        <v>   8616</v>
       </c>
     </row>
     <row r="728">
@@ -14019,10 +14019,10 @@
         <v>1999</v>
       </c>
       <c r="D728" t="n">
-        <v>14.411669888</v>
+        <v>35.9000700128</v>
       </c>
       <c r="E728" t="n">
-        <v>   3920</v>
+        <v>   8344</v>
       </c>
     </row>
     <row r="729">
@@ -14036,10 +14036,10 @@
         <v>2000</v>
       </c>
       <c r="D729" t="n">
-        <v>9.5374789822</v>
+        <v>22.684736569</v>
       </c>
       <c r="E729" t="n">
-        <v>   3107</v>
+        <v>   8965</v>
       </c>
     </row>
     <row r="730">
@@ -14053,10 +14053,10 @@
         <v>2001</v>
       </c>
       <c r="D730" t="n">
-        <v>6.7009279168</v>
+        <v>24.3439147778</v>
       </c>
       <c r="E730" t="n">
-        <v>   2444</v>
+        <v>   8527</v>
       </c>
     </row>
     <row r="731">
@@ -14070,10 +14070,10 @@
         <v>2002</v>
       </c>
       <c r="D731" t="n">
-        <v>10.7625139356</v>
+        <v>25.230340128</v>
       </c>
       <c r="E731" t="n">
-        <v>   3873</v>
+        <v>   8256</v>
       </c>
     </row>
     <row r="732">
@@ -14087,10 +14087,10 @@
         <v>2003</v>
       </c>
       <c r="D732" t="n">
-        <v>13.940092954</v>
+        <v>30.1228718868</v>
       </c>
       <c r="E732" t="n">
-        <v>   4405</v>
+        <v>   7854</v>
       </c>
     </row>
     <row r="733">
@@ -14104,10 +14104,10 @@
         <v>2004</v>
       </c>
       <c r="D733" t="n">
-        <v>17.135373253</v>
+        <v>35.2080042498</v>
       </c>
       <c r="E733" t="n">
-        <v>   5009</v>
+        <v>   9753</v>
       </c>
     </row>
     <row r="734">
@@ -14121,10 +14121,10 @@
         <v>2005</v>
       </c>
       <c r="D734" t="n">
-        <v>19.0940036096</v>
+        <v>38.7593001553</v>
       </c>
       <c r="E734" t="n">
-        <v>   5696</v>
+        <v>  13001</v>
       </c>
     </row>
     <row r="735">
@@ -14138,10 +14138,10 @@
         <v>2006</v>
       </c>
       <c r="D735" t="n">
-        <v>21.4629469521</v>
+        <v>41.9883693789</v>
       </c>
       <c r="E735" t="n">
-        <v>   6477</v>
+        <v>  16563</v>
       </c>
     </row>
     <row r="736">
@@ -14155,10 +14155,10 @@
         <v>2007</v>
       </c>
       <c r="D736" t="n">
-        <v>25.2846931288</v>
+        <v>45.2792921565</v>
       </c>
       <c r="E736" t="n">
-        <v>   7364</v>
+        <v>  16545</v>
       </c>
     </row>
     <row r="737">
@@ -14172,10 +14172,10 @@
         <v>2008</v>
       </c>
       <c r="D737" t="n">
-        <v>29.2973400424</v>
+        <v>39.8799650592</v>
       </c>
       <c r="E737" t="n">
-        <v>   8374</v>
+        <v>  16968</v>
       </c>
     </row>
     <row r="738">
@@ -14189,10 +14189,10 @@
         <v>2009</v>
       </c>
       <c r="D738" t="n">
-        <v>15.1870818177</v>
+        <v>36.2568092382</v>
       </c>
       <c r="E738" t="n">
-        <v>   4797</v>
+        <v>  12939</v>
       </c>
     </row>
     <row r="739">
@@ -14206,10 +14206,10 @@
         <v>2010</v>
       </c>
       <c r="D739" t="n">
-        <v>12.108946876</v>
+        <v>44.3536915744</v>
       </c>
       <c r="E739" t="n">
-        <v>   4196</v>
+        <v>  20056</v>
       </c>
     </row>
     <row r="740">
@@ -14223,10 +14223,10 @@
         <v>2011</v>
       </c>
       <c r="D740" t="n">
-        <v>14.2395770447</v>
+        <v>66.7589981395</v>
       </c>
       <c r="E740" t="n">
-        <v>   4909</v>
+        <v>  31855</v>
       </c>
     </row>
     <row r="741">
@@ -14240,10 +14240,10 @@
         <v>2012</v>
       </c>
       <c r="D741" t="n">
-        <v>21.0615380734</v>
+        <v>99.3791965516</v>
       </c>
       <c r="E741" t="n">
-        <v>   8063</v>
+        <v>  50708</v>
       </c>
     </row>
     <row r="742">
@@ -14257,10 +14257,10 @@
         <v>2013</v>
       </c>
       <c r="D742" t="n">
-        <v>16.3675432096</v>
+        <v>109.7006753325</v>
       </c>
       <c r="E742" t="n">
-        <v>   6248</v>
+        <v>  50015</v>
       </c>
     </row>
     <row r="743">
@@ -14273,11 +14273,9 @@
       <c r="C743" t="n">
         <v>1995</v>
       </c>
-      <c r="D743" t="n">
-        <v>50.6367770163</v>
-      </c>
+      <c r="D743"/>
       <c r="E743" t="n">
-        <v>   7283</v>
+        <v>    373</v>
       </c>
     </row>
     <row r="744">
@@ -14290,11 +14288,9 @@
       <c r="C744" t="n">
         <v>1996</v>
       </c>
-      <c r="D744" t="n">
-        <v>45.9733621854</v>
-      </c>
+      <c r="D744"/>
       <c r="E744" t="n">
-        <v>   7998</v>
+        <v>    325</v>
       </c>
     </row>
     <row r="745">
@@ -14307,11 +14303,9 @@
       <c r="C745" t="n">
         <v>1997</v>
       </c>
-      <c r="D745" t="n">
-        <v>43.2375876445</v>
-      </c>
+      <c r="D745"/>
       <c r="E745" t="n">
-        <v>   9005</v>
+        <v>    259</v>
       </c>
     </row>
     <row r="746">
@@ -14324,11 +14318,9 @@
       <c r="C746" t="n">
         <v>1998</v>
       </c>
-      <c r="D746" t="n">
-        <v>50.030975232</v>
-      </c>
+      <c r="D746"/>
       <c r="E746" t="n">
-        <v>   8616</v>
+        <v>    300</v>
       </c>
     </row>
     <row r="747">
@@ -14341,11 +14333,9 @@
       <c r="C747" t="n">
         <v>1999</v>
       </c>
-      <c r="D747" t="n">
-        <v>35.9000700128</v>
-      </c>
+      <c r="D747"/>
       <c r="E747" t="n">
-        <v>   8344</v>
+        <v>    272</v>
       </c>
     </row>
     <row r="748">
@@ -14358,11 +14348,9 @@
       <c r="C748" t="n">
         <v>2000</v>
       </c>
-      <c r="D748" t="n">
-        <v>22.684736569</v>
-      </c>
+      <c r="D748"/>
       <c r="E748" t="n">
-        <v>   8965</v>
+        <v>    348</v>
       </c>
     </row>
     <row r="749">
@@ -14375,11 +14363,9 @@
       <c r="C749" t="n">
         <v>2001</v>
       </c>
-      <c r="D749" t="n">
-        <v>24.3439147778</v>
-      </c>
+      <c r="D749"/>
       <c r="E749" t="n">
-        <v>   8527</v>
+        <v>    546</v>
       </c>
     </row>
     <row r="750">
@@ -14392,11 +14378,9 @@
       <c r="C750" t="n">
         <v>2002</v>
       </c>
-      <c r="D750" t="n">
-        <v>25.230340128</v>
-      </c>
+      <c r="D750"/>
       <c r="E750" t="n">
-        <v>   8256</v>
+        <v>    450</v>
       </c>
     </row>
     <row r="751">
@@ -14409,11 +14393,9 @@
       <c r="C751" t="n">
         <v>2003</v>
       </c>
-      <c r="D751" t="n">
-        <v>30.1228718868</v>
-      </c>
+      <c r="D751"/>
       <c r="E751" t="n">
-        <v>   7854</v>
+        <v>    509</v>
       </c>
     </row>
     <row r="752">
@@ -14426,11 +14408,9 @@
       <c r="C752" t="n">
         <v>2004</v>
       </c>
-      <c r="D752" t="n">
-        <v>35.2080042498</v>
-      </c>
+      <c r="D752"/>
       <c r="E752" t="n">
-        <v>   9753</v>
+        <v>    494</v>
       </c>
     </row>
     <row r="753">
@@ -14443,11 +14423,9 @@
       <c r="C753" t="n">
         <v>2005</v>
       </c>
-      <c r="D753" t="n">
-        <v>38.7593001553</v>
-      </c>
+      <c r="D753"/>
       <c r="E753" t="n">
-        <v>  13001</v>
+        <v>    588</v>
       </c>
     </row>
     <row r="754">
@@ -14460,11 +14438,9 @@
       <c r="C754" t="n">
         <v>2006</v>
       </c>
-      <c r="D754" t="n">
-        <v>41.9883693789</v>
-      </c>
+      <c r="D754"/>
       <c r="E754" t="n">
-        <v>  16563</v>
+        <v>    553</v>
       </c>
     </row>
     <row r="755">
@@ -14477,11 +14453,9 @@
       <c r="C755" t="n">
         <v>2007</v>
       </c>
-      <c r="D755" t="n">
-        <v>45.2792921565</v>
-      </c>
+      <c r="D755"/>
       <c r="E755" t="n">
-        <v>  16545</v>
+        <v>    581</v>
       </c>
     </row>
     <row r="756">
@@ -14494,11 +14468,9 @@
       <c r="C756" t="n">
         <v>2008</v>
       </c>
-      <c r="D756" t="n">
-        <v>39.8799650592</v>
-      </c>
+      <c r="D756"/>
       <c r="E756" t="n">
-        <v>  16968</v>
+        <v>    598</v>
       </c>
     </row>
     <row r="757">
@@ -14511,11 +14483,9 @@
       <c r="C757" t="n">
         <v>2009</v>
       </c>
-      <c r="D757" t="n">
-        <v>36.2568092382</v>
-      </c>
+      <c r="D757"/>
       <c r="E757" t="n">
-        <v>  12939</v>
+        <v>    652</v>
       </c>
     </row>
     <row r="758">
@@ -14528,11 +14498,9 @@
       <c r="C758" t="n">
         <v>2010</v>
       </c>
-      <c r="D758" t="n">
-        <v>44.3536915744</v>
-      </c>
+      <c r="D758"/>
       <c r="E758" t="n">
-        <v>  20056</v>
+        <v>    702</v>
       </c>
     </row>
     <row r="759">
@@ -14545,11 +14513,9 @@
       <c r="C759" t="n">
         <v>2011</v>
       </c>
-      <c r="D759" t="n">
-        <v>66.7589981395</v>
-      </c>
+      <c r="D759"/>
       <c r="E759" t="n">
-        <v>  31855</v>
+        <v>    588</v>
       </c>
     </row>
     <row r="760">
@@ -14562,11 +14528,9 @@
       <c r="C760" t="n">
         <v>2012</v>
       </c>
-      <c r="D760" t="n">
-        <v>99.3791965516</v>
-      </c>
+      <c r="D760"/>
       <c r="E760" t="n">
-        <v>  50708</v>
+        <v>    556</v>
       </c>
     </row>
     <row r="761">
@@ -14579,11 +14543,9 @@
       <c r="C761" t="n">
         <v>2013</v>
       </c>
-      <c r="D761" t="n">
-        <v>109.7006753325</v>
-      </c>
+      <c r="D761"/>
       <c r="E761" t="n">
-        <v>  50015</v>
+        <v>    578</v>
       </c>
     </row>
     <row r="762">
@@ -14596,9 +14558,11 @@
       <c r="C762" t="n">
         <v>1995</v>
       </c>
-      <c r="D762"/>
+      <c r="D762" t="n">
+        <v>105.0316180944</v>
+      </c>
       <c r="E762" t="n">
-        <v>    373</v>
+        <v>   3728</v>
       </c>
     </row>
     <row r="763">
@@ -14611,9 +14575,11 @@
       <c r="C763" t="n">
         <v>1996</v>
       </c>
-      <c r="D763"/>
+      <c r="D763" t="n">
+        <v>100.1993586204</v>
+      </c>
       <c r="E763" t="n">
-        <v>    325</v>
+        <v>   4758</v>
       </c>
     </row>
     <row r="764">
@@ -14626,9 +14592,11 @@
       <c r="C764" t="n">
         <v>1997</v>
       </c>
-      <c r="D764"/>
+      <c r="D764" t="n">
+        <v>87.776544276</v>
+      </c>
       <c r="E764" t="n">
-        <v>    259</v>
+        <v>   5364</v>
       </c>
     </row>
     <row r="765">
@@ -14641,9 +14609,11 @@
       <c r="C765" t="n">
         <v>1998</v>
       </c>
-      <c r="D765"/>
+      <c r="D765" t="n">
+        <v>152.7554583945</v>
+      </c>
       <c r="E765" t="n">
-        <v>    300</v>
+        <v>  11573</v>
       </c>
     </row>
     <row r="766">
@@ -14656,9 +14626,11 @@
       <c r="C766" t="n">
         <v>1999</v>
       </c>
-      <c r="D766"/>
+      <c r="D766" t="n">
+        <v>131.4289042245</v>
+      </c>
       <c r="E766" t="n">
-        <v>    272</v>
+        <v>  12717</v>
       </c>
     </row>
     <row r="767">
@@ -14671,9 +14643,11 @@
       <c r="C767" t="n">
         <v>2000</v>
       </c>
-      <c r="D767"/>
+      <c r="D767" t="n">
+        <v>120.4917864282</v>
+      </c>
       <c r="E767" t="n">
-        <v>    348</v>
+        <v>  13453</v>
       </c>
     </row>
     <row r="768">
@@ -14686,9 +14660,11 @@
       <c r="C768" t="n">
         <v>2001</v>
       </c>
-      <c r="D768"/>
+      <c r="D768" t="n">
+        <v>67.7250794721</v>
+      </c>
       <c r="E768" t="n">
-        <v>    546</v>
+        <v>   8763</v>
       </c>
     </row>
     <row r="769">
@@ -14701,9 +14677,11 @@
       <c r="C769" t="n">
         <v>2002</v>
       </c>
-      <c r="D769"/>
+      <c r="D769" t="n">
+        <v>100.0038089788</v>
+      </c>
       <c r="E769" t="n">
-        <v>    450</v>
+        <v>  15458</v>
       </c>
     </row>
     <row r="770">
@@ -14716,9 +14694,11 @@
       <c r="C770" t="n">
         <v>2003</v>
       </c>
-      <c r="D770"/>
+      <c r="D770" t="n">
+        <v>93.1919648908</v>
+      </c>
       <c r="E770" t="n">
-        <v>    509</v>
+        <v>  17282</v>
       </c>
     </row>
     <row r="771">
@@ -14731,9 +14711,11 @@
       <c r="C771" t="n">
         <v>2004</v>
       </c>
-      <c r="D771"/>
+      <c r="D771" t="n">
+        <v>76.18895172</v>
+      </c>
       <c r="E771" t="n">
-        <v>    494</v>
+        <v>  17360</v>
       </c>
     </row>
     <row r="772">
@@ -14746,9 +14728,11 @@
       <c r="C772" t="n">
         <v>2005</v>
       </c>
-      <c r="D772"/>
+      <c r="D772" t="n">
+        <v>66.9073471335</v>
+      </c>
       <c r="E772" t="n">
-        <v>    588</v>
+        <v>  18399</v>
       </c>
     </row>
     <row r="773">
@@ -14761,9 +14745,11 @@
       <c r="C773" t="n">
         <v>2006</v>
       </c>
-      <c r="D773"/>
+      <c r="D773" t="n">
+        <v>62.5299667328</v>
+      </c>
       <c r="E773" t="n">
-        <v>    553</v>
+        <v>  20426</v>
       </c>
     </row>
     <row r="774">
@@ -14776,9 +14762,11 @@
       <c r="C774" t="n">
         <v>2007</v>
       </c>
-      <c r="D774"/>
+      <c r="D774" t="n">
+        <v>69.7357375392</v>
+      </c>
       <c r="E774" t="n">
-        <v>    581</v>
+        <v>  25176</v>
       </c>
     </row>
     <row r="775">
@@ -14791,9 +14779,11 @@
       <c r="C775" t="n">
         <v>2008</v>
       </c>
-      <c r="D775"/>
+      <c r="D775" t="n">
+        <v>72.5690061495001</v>
+      </c>
       <c r="E775" t="n">
-        <v>    598</v>
+        <v>  29995</v>
       </c>
     </row>
     <row r="776">
@@ -14806,9 +14796,11 @@
       <c r="C776" t="n">
         <v>2009</v>
       </c>
-      <c r="D776"/>
+      <c r="D776" t="n">
+        <v>75.915075324</v>
+      </c>
       <c r="E776" t="n">
-        <v>    652</v>
+        <v>  37048</v>
       </c>
     </row>
     <row r="777">
@@ -14821,9 +14813,11 @@
       <c r="C777" t="n">
         <v>2010</v>
       </c>
-      <c r="D777"/>
+      <c r="D777" t="n">
+        <v>82.6278127288</v>
+      </c>
       <c r="E777" t="n">
-        <v>    702</v>
+        <v>  39931</v>
       </c>
     </row>
     <row r="778">
@@ -14836,9 +14830,11 @@
       <c r="C778" t="n">
         <v>2011</v>
       </c>
-      <c r="D778"/>
+      <c r="D778" t="n">
+        <v>131.0379327627</v>
+      </c>
       <c r="E778" t="n">
-        <v>    588</v>
+        <v>  63659</v>
       </c>
     </row>
     <row r="779">
@@ -14851,9 +14847,11 @@
       <c r="C779" t="n">
         <v>2012</v>
       </c>
-      <c r="D779"/>
+      <c r="D779" t="n">
+        <v>146.9419823694</v>
+      </c>
       <c r="E779" t="n">
-        <v>    556</v>
+        <v>  73897</v>
       </c>
     </row>
     <row r="780">
@@ -14866,9 +14864,11 @@
       <c r="C780" t="n">
         <v>2013</v>
       </c>
-      <c r="D780"/>
+      <c r="D780" t="n">
+        <v>143.2968681912</v>
+      </c>
       <c r="E780" t="n">
-        <v>    578</v>
+        <v>  75199</v>
       </c>
     </row>
     <row r="781">
@@ -14882,10 +14882,10 @@
         <v>1995</v>
       </c>
       <c r="D781" t="n">
-        <v>105.0316180944</v>
+        <v>22.2092925857</v>
       </c>
       <c r="E781" t="n">
-        <v>   3728</v>
+        <v>   6197</v>
       </c>
     </row>
     <row r="782">
@@ -14899,10 +14899,10 @@
         <v>1996</v>
       </c>
       <c r="D782" t="n">
-        <v>100.1993586204</v>
+        <v>25.7044031211</v>
       </c>
       <c r="E782" t="n">
-        <v>   4758</v>
+        <v>   7689</v>
       </c>
     </row>
     <row r="783">
@@ -14916,10 +14916,10 @@
         <v>1997</v>
       </c>
       <c r="D783" t="n">
-        <v>87.776544276</v>
+        <v>25.3474386088</v>
       </c>
       <c r="E783" t="n">
-        <v>   5364</v>
+        <v>   8932</v>
       </c>
     </row>
     <row r="784">
@@ -14933,10 +14933,10 @@
         <v>1998</v>
       </c>
       <c r="D784" t="n">
-        <v>152.7554583945</v>
+        <v>23.6830942175</v>
       </c>
       <c r="E784" t="n">
-        <v>  11573</v>
+        <v>   8915</v>
       </c>
     </row>
     <row r="785">
@@ -14950,10 +14950,10 @@
         <v>1999</v>
       </c>
       <c r="D785" t="n">
-        <v>131.4289042245</v>
+        <v>21.3643312155</v>
       </c>
       <c r="E785" t="n">
-        <v>  12717</v>
+        <v>   8505</v>
       </c>
     </row>
     <row r="786">
@@ -14967,10 +14967,10 @@
         <v>2000</v>
       </c>
       <c r="D786" t="n">
-        <v>120.4917864282</v>
+        <v>17.3965837758</v>
       </c>
       <c r="E786" t="n">
-        <v>  13453</v>
+        <v>   8286</v>
       </c>
     </row>
     <row r="787">
@@ -14984,10 +14984,10 @@
         <v>2001</v>
       </c>
       <c r="D787" t="n">
-        <v>67.7250794721</v>
+        <v>12.1675490192</v>
       </c>
       <c r="E787" t="n">
-        <v>   8763</v>
+        <v>   6256</v>
       </c>
     </row>
     <row r="788">
@@ -15001,10 +15001,10 @@
         <v>2002</v>
       </c>
       <c r="D788" t="n">
-        <v>100.0038089788</v>
+        <v>14.7354113984</v>
       </c>
       <c r="E788" t="n">
-        <v>  15458</v>
+        <v>   7084</v>
       </c>
     </row>
     <row r="789">
@@ -15018,10 +15018,10 @@
         <v>2003</v>
       </c>
       <c r="D789" t="n">
-        <v>93.1919648908</v>
+        <v>16.2808002945</v>
       </c>
       <c r="E789" t="n">
-        <v>  17282</v>
+        <v>   6795</v>
       </c>
     </row>
     <row r="790">
@@ -15035,10 +15035,10 @@
         <v>2004</v>
       </c>
       <c r="D790" t="n">
-        <v>76.18895172</v>
+        <v>19.2864045007</v>
       </c>
       <c r="E790" t="n">
-        <v>  17360</v>
+        <v>   7181</v>
       </c>
     </row>
     <row r="791">
@@ -15052,10 +15052,10 @@
         <v>2005</v>
       </c>
       <c r="D791" t="n">
-        <v>66.9073471335</v>
+        <v>14.4436815081</v>
       </c>
       <c r="E791" t="n">
-        <v>  18399</v>
+        <v>   6147</v>
       </c>
     </row>
     <row r="792">
@@ -15069,10 +15069,10 @@
         <v>2006</v>
       </c>
       <c r="D792" t="n">
-        <v>62.5299667328</v>
+        <v>16.961544972</v>
       </c>
       <c r="E792" t="n">
-        <v>  20426</v>
+        <v>   6590</v>
       </c>
     </row>
     <row r="793">
@@ -15086,10 +15086,10 @@
         <v>2007</v>
       </c>
       <c r="D793" t="n">
-        <v>69.7357375392</v>
+        <v>19.3333584444</v>
       </c>
       <c r="E793" t="n">
-        <v>  25176</v>
+        <v>   7007</v>
       </c>
     </row>
     <row r="794">
@@ -15103,10 +15103,10 @@
         <v>2008</v>
       </c>
       <c r="D794" t="n">
-        <v>72.5690061495001</v>
+        <v>19.6316331534</v>
       </c>
       <c r="E794" t="n">
-        <v>  29995</v>
+        <v>   8262</v>
       </c>
     </row>
     <row r="795">
@@ -15120,10 +15120,10 @@
         <v>2009</v>
       </c>
       <c r="D795" t="n">
-        <v>75.915075324</v>
+        <v>24.3179729658</v>
       </c>
       <c r="E795" t="n">
-        <v>  37048</v>
+        <v>   9774</v>
       </c>
     </row>
     <row r="796">
@@ -15137,10 +15137,10 @@
         <v>2010</v>
       </c>
       <c r="D796" t="n">
-        <v>82.6278127288</v>
+        <v>21.7653364416</v>
       </c>
       <c r="E796" t="n">
-        <v>  39931</v>
+        <v>  10182</v>
       </c>
     </row>
     <row r="797">
@@ -15154,10 +15154,10 @@
         <v>2011</v>
       </c>
       <c r="D797" t="n">
-        <v>131.0379327627</v>
+        <v>19.8855750447</v>
       </c>
       <c r="E797" t="n">
-        <v>  63659</v>
+        <v>   9483</v>
       </c>
     </row>
     <row r="798">
@@ -15171,10 +15171,10 @@
         <v>2012</v>
       </c>
       <c r="D798" t="n">
-        <v>146.9419823694</v>
+        <v>23.3418891255</v>
       </c>
       <c r="E798" t="n">
-        <v>  73897</v>
+        <v>  11671</v>
       </c>
     </row>
     <row r="799">
@@ -15188,10 +15188,10 @@
         <v>2013</v>
       </c>
       <c r="D799" t="n">
-        <v>143.2968681912</v>
+        <v>27.2232526013</v>
       </c>
       <c r="E799" t="n">
-        <v>  75199</v>
+        <v>  13297</v>
       </c>
     </row>
     <row r="800">
@@ -59909,10 +59909,10 @@
         <v>1995</v>
       </c>
       <c r="D3460" t="n">
-        <v>652.09971159</v>
+        <v>1662.8030155075</v>
       </c>
       <c r="E3460" t="n">
-        <v>     54</v>
+        <v>    725</v>
       </c>
     </row>
     <row r="3461">
@@ -59926,10 +59926,10 @@
         <v>1996</v>
       </c>
       <c r="D3461" t="n">
-        <v>451.3796644588</v>
+        <v>1686.4301079168</v>
       </c>
       <c r="E3461" t="n">
-        <v>     77</v>
+        <v>    764</v>
       </c>
     </row>
     <row r="3462">
@@ -59943,10 +59943,10 @@
         <v>1997</v>
       </c>
       <c r="D3462" t="n">
-        <v>379.8605737914</v>
+        <v>1719.3460218732</v>
       </c>
       <c r="E3462" t="n">
-        <v>     78</v>
+        <v>    756</v>
       </c>
     </row>
     <row r="3463">
@@ -59960,10 +59960,10 @@
         <v>1998</v>
       </c>
       <c r="D3463" t="n">
-        <v>241.4279259917</v>
+        <v>1817.0730311755</v>
       </c>
       <c r="E3463" t="n">
-        <v>     73</v>
+        <v>    805</v>
       </c>
     </row>
     <row r="3464">
@@ -59977,10 +59977,10 @@
         <v>1999</v>
       </c>
       <c r="D3464" t="n">
-        <v>120.0790441344</v>
+        <v>1901.5723998034</v>
       </c>
       <c r="E3464" t="n">
-        <v>     78</v>
+        <v>    881</v>
       </c>
     </row>
     <row r="3465">
@@ -59994,10 +59994,10 @@
         <v>2000</v>
       </c>
       <c r="D3465" t="n">
-        <v>94.96582389</v>
+        <v>1847.7145033725</v>
       </c>
       <c r="E3465" t="n">
-        <v>    100</v>
+        <v>    921</v>
       </c>
     </row>
     <row r="3466">
@@ -60011,10 +60011,10 @@
         <v>2001</v>
       </c>
       <c r="D3466" t="n">
-        <v>112.8602548872</v>
+        <v>1862.9172638</v>
       </c>
       <c r="E3466" t="n">
-        <v>    129</v>
+        <v>   1000</v>
       </c>
     </row>
     <row r="3467">
@@ -60028,10 +60028,10 @@
         <v>2002</v>
       </c>
       <c r="D3467" t="n">
-        <v>138.4989908775</v>
+        <v>2073.595247021</v>
       </c>
       <c r="E3467" t="n">
-        <v>    165</v>
+        <v>   1094</v>
       </c>
     </row>
     <row r="3468">
@@ -60045,10 +60045,10 @@
         <v>2003</v>
       </c>
       <c r="D3468" t="n">
-        <v>174.6322166475</v>
+        <v>2403.489532094</v>
       </c>
       <c r="E3468" t="n">
-        <v>    225</v>
+        <v>   1190</v>
       </c>
     </row>
     <row r="3469">
@@ -60062,10 +60062,10 @@
         <v>2004</v>
       </c>
       <c r="D3469" t="n">
-        <v>189.221339244</v>
+        <v>2888.1730691554</v>
       </c>
       <c r="E3469" t="n">
-        <v>    280</v>
+        <v>   1306</v>
       </c>
     </row>
     <row r="3470">
@@ -60079,10 +60079,10 @@
         <v>2005</v>
       </c>
       <c r="D3470" t="n">
-        <v>200.5592599056</v>
+        <v>3021.9692808262</v>
       </c>
       <c r="E3470" t="n">
-        <v>    356</v>
+        <v>   1402</v>
       </c>
     </row>
     <row r="3471">
@@ -60096,10 +60096,10 @@
         <v>2006</v>
       </c>
       <c r="D3471" t="n">
-        <v>223.3416338351</v>
+        <v>3196.4258212238</v>
       </c>
       <c r="E3471" t="n">
-        <v>    449</v>
+        <v>   1507</v>
       </c>
     </row>
     <row r="3472">
@@ -60113,10 +60113,10 @@
         <v>2007</v>
       </c>
       <c r="D3472" t="n">
-        <v>244.7548475904</v>
+        <v>3549.5222537776</v>
       </c>
       <c r="E3472" t="n">
-        <v>    604</v>
+        <v>   1576</v>
       </c>
     </row>
     <row r="3473">
@@ -60130,10 +60130,10 @@
         <v>2008</v>
       </c>
       <c r="D3473" t="n">
-        <v>234.3256644</v>
+        <v>3433.3413945983</v>
       </c>
       <c r="E3473" t="n">
-        <v>    775</v>
+        <v>   1699</v>
       </c>
     </row>
     <row r="3474">
@@ -60147,10 +60147,10 @@
         <v>2009</v>
       </c>
       <c r="D3474" t="n">
-        <v>152.286195717</v>
+        <v>3085.5400101718</v>
       </c>
       <c r="E3474" t="n">
-        <v>    843</v>
+        <v>   1849</v>
       </c>
     </row>
     <row r="3475">
@@ -60164,10 +60164,10 @@
         <v>2010</v>
       </c>
       <c r="D3475" t="n">
-        <v>161.065795869</v>
+        <v>2992.695695183</v>
       </c>
       <c r="E3475" t="n">
-        <v>   1034</v>
+        <v>   1871</v>
       </c>
     </row>
     <row r="3476">
@@ -60181,10 +60181,10 @@
         <v>2011</v>
       </c>
       <c r="D3476" t="n">
-        <v>156.7234663995</v>
+        <v>3045.2138478624</v>
       </c>
       <c r="E3476" t="n">
-        <v>   1155</v>
+        <v>   1878</v>
       </c>
     </row>
     <row r="3477">
@@ -60198,10 +60198,10 @@
         <v>2012</v>
       </c>
       <c r="D3477" t="n">
-        <v>159.6123432508</v>
+        <v>3029.5201950195</v>
       </c>
       <c r="E3477" t="n">
-        <v>   1276</v>
+        <v>   1911</v>
       </c>
     </row>
     <row r="3478">
@@ -60215,10 +60215,10 @@
         <v>2013</v>
       </c>
       <c r="D3478" t="n">
-        <v>160.7699511528</v>
+        <v>2957.6668191717</v>
       </c>
       <c r="E3478" t="n">
-        <v>   1353</v>
+        <v>   1923</v>
       </c>
     </row>
     <row r="3479">
@@ -60232,10 +60232,10 @@
         <v>1995</v>
       </c>
       <c r="D3479" t="n">
-        <v>1662.8030155075</v>
+        <v>652.09971159</v>
       </c>
       <c r="E3479" t="n">
-        <v>    725</v>
+        <v>     54</v>
       </c>
     </row>
     <row r="3480">
@@ -60249,10 +60249,10 @@
         <v>1996</v>
       </c>
       <c r="D3480" t="n">
-        <v>1686.4301079168</v>
+        <v>451.3796644588</v>
       </c>
       <c r="E3480" t="n">
-        <v>    764</v>
+        <v>     77</v>
       </c>
     </row>
     <row r="3481">
@@ -60266,10 +60266,10 @@
         <v>1997</v>
       </c>
       <c r="D3481" t="n">
-        <v>1719.3460218732</v>
+        <v>379.8605737914</v>
       </c>
       <c r="E3481" t="n">
-        <v>    756</v>
+        <v>     78</v>
       </c>
     </row>
     <row r="3482">
@@ -60283,10 +60283,10 @@
         <v>1998</v>
       </c>
       <c r="D3482" t="n">
-        <v>1817.0730311755</v>
+        <v>241.4279259917</v>
       </c>
       <c r="E3482" t="n">
-        <v>    805</v>
+        <v>     73</v>
       </c>
     </row>
     <row r="3483">
@@ -60300,10 +60300,10 @@
         <v>1999</v>
       </c>
       <c r="D3483" t="n">
-        <v>1901.5723998034</v>
+        <v>120.0790441344</v>
       </c>
       <c r="E3483" t="n">
-        <v>    881</v>
+        <v>     78</v>
       </c>
     </row>
     <row r="3484">
@@ -60317,10 +60317,10 @@
         <v>2000</v>
       </c>
       <c r="D3484" t="n">
-        <v>1847.7145033725</v>
+        <v>94.96582389</v>
       </c>
       <c r="E3484" t="n">
-        <v>    921</v>
+        <v>    100</v>
       </c>
     </row>
     <row r="3485">
@@ -60334,10 +60334,10 @@
         <v>2001</v>
       </c>
       <c r="D3485" t="n">
-        <v>1862.9172638</v>
+        <v>112.8602548872</v>
       </c>
       <c r="E3485" t="n">
-        <v>   1000</v>
+        <v>    129</v>
       </c>
     </row>
     <row r="3486">
@@ -60351,10 +60351,10 @@
         <v>2002</v>
       </c>
       <c r="D3486" t="n">
-        <v>2073.595247021</v>
+        <v>138.4989908775</v>
       </c>
       <c r="E3486" t="n">
-        <v>   1094</v>
+        <v>    165</v>
       </c>
     </row>
     <row r="3487">
@@ -60368,10 +60368,10 @@
         <v>2003</v>
       </c>
       <c r="D3487" t="n">
-        <v>2403.489532094</v>
+        <v>174.6322166475</v>
       </c>
       <c r="E3487" t="n">
-        <v>   1190</v>
+        <v>    225</v>
       </c>
     </row>
     <row r="3488">
@@ -60385,10 +60385,10 @@
         <v>2004</v>
       </c>
       <c r="D3488" t="n">
-        <v>2888.1730691554</v>
+        <v>189.221339244</v>
       </c>
       <c r="E3488" t="n">
-        <v>   1306</v>
+        <v>    280</v>
       </c>
     </row>
     <row r="3489">
@@ -60402,10 +60402,10 @@
         <v>2005</v>
       </c>
       <c r="D3489" t="n">
-        <v>3021.9692808262</v>
+        <v>200.5592599056</v>
       </c>
       <c r="E3489" t="n">
-        <v>   1402</v>
+        <v>    356</v>
       </c>
     </row>
     <row r="3490">
@@ -60419,10 +60419,10 @@
         <v>2006</v>
       </c>
       <c r="D3490" t="n">
-        <v>3196.4258212238</v>
+        <v>223.3416338351</v>
       </c>
       <c r="E3490" t="n">
-        <v>   1507</v>
+        <v>    449</v>
       </c>
     </row>
     <row r="3491">
@@ -60436,10 +60436,10 @@
         <v>2007</v>
       </c>
       <c r="D3491" t="n">
-        <v>3549.5222537776</v>
+        <v>244.7548475904</v>
       </c>
       <c r="E3491" t="n">
-        <v>   1576</v>
+        <v>    604</v>
       </c>
     </row>
     <row r="3492">
@@ -60453,10 +60453,10 @@
         <v>2008</v>
       </c>
       <c r="D3492" t="n">
-        <v>3433.3413945983</v>
+        <v>234.3256644</v>
       </c>
       <c r="E3492" t="n">
-        <v>   1699</v>
+        <v>    775</v>
       </c>
     </row>
     <row r="3493">
@@ -60470,10 +60470,10 @@
         <v>2009</v>
       </c>
       <c r="D3493" t="n">
-        <v>3085.5400101718</v>
+        <v>152.286195717</v>
       </c>
       <c r="E3493" t="n">
-        <v>   1849</v>
+        <v>    843</v>
       </c>
     </row>
     <row r="3494">
@@ -60487,10 +60487,10 @@
         <v>2010</v>
       </c>
       <c r="D3494" t="n">
-        <v>2992.695695183</v>
+        <v>161.065795869</v>
       </c>
       <c r="E3494" t="n">
-        <v>   1871</v>
+        <v>   1034</v>
       </c>
     </row>
     <row r="3495">
@@ -60504,10 +60504,10 @@
         <v>2011</v>
       </c>
       <c r="D3495" t="n">
-        <v>3045.2138478624</v>
+        <v>156.7234663995</v>
       </c>
       <c r="E3495" t="n">
-        <v>   1878</v>
+        <v>   1155</v>
       </c>
     </row>
     <row r="3496">
@@ -60521,10 +60521,10 @@
         <v>2012</v>
       </c>
       <c r="D3496" t="n">
-        <v>3029.5201950195</v>
+        <v>159.6123432508</v>
       </c>
       <c r="E3496" t="n">
-        <v>   1911</v>
+        <v>   1276</v>
       </c>
     </row>
     <row r="3497">
@@ -60538,10 +60538,10 @@
         <v>2013</v>
       </c>
       <c r="D3497" t="n">
-        <v>2957.6668191717</v>
+        <v>160.7699511528</v>
       </c>
       <c r="E3497" t="n">
-        <v>   1923</v>
+        <v>   1353</v>
       </c>
     </row>
     <row r="3498">
@@ -64975,61 +64975,61 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>22.2092925857</v>
+        <v>6.3083445597</v>
       </c>
       <c r="D30" t="n">
-        <v>25.7044031211</v>
+        <v>14.0372072379</v>
       </c>
       <c r="E30" t="n">
-        <v>25.3474386088</v>
+        <v>9.950448695</v>
       </c>
       <c r="F30" t="n">
-        <v>23.6830942175</v>
+        <v>5.3642283678</v>
       </c>
       <c r="G30" t="n">
-        <v>21.3643312155</v>
+        <v>5.180289741</v>
       </c>
       <c r="H30" t="n">
-        <v>17.3965837758</v>
+        <v>6.2700989514</v>
       </c>
       <c r="I30" t="n">
-        <v>12.1675490192</v>
+        <v>6.306169065</v>
       </c>
       <c r="J30" t="n">
-        <v>14.7354113984</v>
+        <v>7.7975268063</v>
       </c>
       <c r="K30" t="n">
-        <v>16.2808002945</v>
+        <v>13.0501138626</v>
       </c>
       <c r="L30" t="n">
-        <v>19.2864045007</v>
+        <v>13.6539722091</v>
       </c>
       <c r="M30" t="n">
-        <v>14.4436815081</v>
+        <v>10.012108762</v>
       </c>
       <c r="N30" t="n">
-        <v>16.961544972</v>
+        <v>6.72011808</v>
       </c>
       <c r="O30" t="n">
-        <v>19.3333584444</v>
+        <v>8.283843</v>
       </c>
       <c r="P30" t="n">
-        <v>19.6316331534</v>
+        <v>8.3720299455</v>
       </c>
       <c r="Q30" t="n">
-        <v>24.3179729658</v>
+        <v>9.6709728092</v>
       </c>
       <c r="R30" t="n">
-        <v>21.7653364416</v>
+        <v>10.7376596085</v>
       </c>
       <c r="S30" t="n">
-        <v>19.8855750447</v>
+        <v>11.2450422688</v>
       </c>
       <c r="T30" t="n">
-        <v>23.3418891255</v>
+        <v>13.744154072</v>
       </c>
       <c r="U30" t="n">
-        <v>27.2232526013</v>
+        <v>15.4041367062</v>
       </c>
     </row>
     <row r="31">
@@ -65040,61 +65040,61 @@
         <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>6.3083445597</v>
+        <v>8.229586617</v>
       </c>
       <c r="D31" t="n">
-        <v>14.0372072379</v>
+        <v>8.3905841404</v>
       </c>
       <c r="E31" t="n">
-        <v>9.950448695</v>
+        <v>8.850416121</v>
       </c>
       <c r="F31" t="n">
-        <v>5.3642283678</v>
+        <v>6.594126402</v>
       </c>
       <c r="G31" t="n">
-        <v>5.180289741</v>
+        <v>7.5329595018</v>
       </c>
       <c r="H31" t="n">
-        <v>6.2700989514</v>
+        <v>7.0734550266</v>
       </c>
       <c r="I31" t="n">
-        <v>6.306169065</v>
+        <v>8.5210228532</v>
       </c>
       <c r="J31" t="n">
-        <v>7.7975268063</v>
+        <v>10.4357941563</v>
       </c>
       <c r="K31" t="n">
-        <v>13.0501138626</v>
+        <v>13.1027664055</v>
       </c>
       <c r="L31" t="n">
-        <v>13.6539722091</v>
+        <v>12.2948898141</v>
       </c>
       <c r="M31" t="n">
-        <v>10.012108762</v>
+        <v>12.2202927612</v>
       </c>
       <c r="N31" t="n">
-        <v>6.72011808</v>
+        <v>11.8908816408</v>
       </c>
       <c r="O31" t="n">
-        <v>8.283843</v>
+        <v>12.8947527975</v>
       </c>
       <c r="P31" t="n">
-        <v>8.3720299455</v>
+        <v>13.5641495297</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.6709728092</v>
+        <v>15.4416134913</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7376596085</v>
+        <v>17.8754924517</v>
       </c>
       <c r="S31" t="n">
-        <v>11.2450422688</v>
+        <v>22.348298412</v>
       </c>
       <c r="T31" t="n">
-        <v>13.744154072</v>
+        <v>19.3007780944</v>
       </c>
       <c r="U31" t="n">
-        <v>15.4041367062</v>
+        <v>22.3834484384</v>
       </c>
     </row>
     <row r="32">
@@ -65105,61 +65105,61 @@
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>8.229586617</v>
+        <v>1846.233424648</v>
       </c>
       <c r="D32" t="n">
-        <v>8.3905841404</v>
+        <v>1808.7183393908</v>
       </c>
       <c r="E32" t="n">
-        <v>8.850416121</v>
+        <v>1810.359972606</v>
       </c>
       <c r="F32" t="n">
-        <v>6.594126402</v>
+        <v>1799.722342033</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5329595018</v>
+        <v>1833.4009187965</v>
       </c>
       <c r="H32" t="n">
-        <v>7.0734550266</v>
+        <v>1906.1227751868</v>
       </c>
       <c r="I32" t="n">
-        <v>8.5210228532</v>
+        <v>1920.6688393884</v>
       </c>
       <c r="J32" t="n">
-        <v>10.4357941563</v>
+        <v>1972.800483588</v>
       </c>
       <c r="K32" t="n">
-        <v>13.1027664055</v>
+        <v>2289.5042100988</v>
       </c>
       <c r="L32" t="n">
-        <v>12.2948898141</v>
+        <v>2529.1545124545</v>
       </c>
       <c r="M32" t="n">
-        <v>12.2202927612</v>
+        <v>2776.712556346</v>
       </c>
       <c r="N32" t="n">
-        <v>11.8908816408</v>
+        <v>3037.4647276457</v>
       </c>
       <c r="O32" t="n">
-        <v>12.8947527975</v>
+        <v>3286.7367584777</v>
       </c>
       <c r="P32" t="n">
-        <v>13.5641495297</v>
+        <v>3394.0087569165</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.4416134913</v>
+        <v>3417.5965880462</v>
       </c>
       <c r="R32" t="n">
-        <v>17.8754924517</v>
+        <v>3864.6350212988</v>
       </c>
       <c r="S32" t="n">
-        <v>22.348298412</v>
+        <v>4009.0925774612</v>
       </c>
       <c r="T32" t="n">
-        <v>19.3007780944</v>
+        <v>3960.2134903839</v>
       </c>
       <c r="U32" t="n">
-        <v>22.3834484384</v>
+        <v>3863.5385961193</v>
       </c>
     </row>
     <row r="33">
@@ -65170,61 +65170,61 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>1846.233424648</v>
+        <v>45.8265528864</v>
       </c>
       <c r="D33" t="n">
-        <v>1808.7183393908</v>
+        <v>42.6217363845</v>
       </c>
       <c r="E33" t="n">
-        <v>1810.359972606</v>
+        <v>41.1438348218</v>
       </c>
       <c r="F33" t="n">
-        <v>1799.722342033</v>
+        <v>42.7356510885</v>
       </c>
       <c r="G33" t="n">
-        <v>1833.4009187965</v>
+        <v>35.3197845639</v>
       </c>
       <c r="H33" t="n">
-        <v>1906.1227751868</v>
+        <v>33.3693733824</v>
       </c>
       <c r="I33" t="n">
-        <v>1920.6688393884</v>
+        <v>38.021491935</v>
       </c>
       <c r="J33" t="n">
-        <v>1972.800483588</v>
+        <v>41.9532997352</v>
       </c>
       <c r="K33" t="n">
-        <v>2289.5042100988</v>
+        <v>51.5773959824</v>
       </c>
       <c r="L33" t="n">
-        <v>2529.1545124545</v>
+        <v>59.8231916325</v>
       </c>
       <c r="M33" t="n">
-        <v>2776.712556346</v>
+        <v>62.9925851484</v>
       </c>
       <c r="N33" t="n">
-        <v>3037.4647276457</v>
+        <v>79.2825939048</v>
       </c>
       <c r="O33" t="n">
-        <v>3286.7367584777</v>
+        <v>82.8820721235</v>
       </c>
       <c r="P33" t="n">
-        <v>3394.0087569165</v>
+        <v>84.0679953999</v>
       </c>
       <c r="Q33" t="n">
-        <v>3417.5965880462</v>
+        <v>85.9334709672</v>
       </c>
       <c r="R33" t="n">
-        <v>3864.6350212988</v>
+        <v>90.0227773336</v>
       </c>
       <c r="S33" t="n">
-        <v>4009.0925774612</v>
+        <v>90.1311613566</v>
       </c>
       <c r="T33" t="n">
-        <v>3960.2134903839</v>
+        <v>83.3081242275</v>
       </c>
       <c r="U33" t="n">
-        <v>3863.5385961193</v>
+        <v>83.8081656999</v>
       </c>
     </row>
     <row r="34">
@@ -65235,61 +65235,61 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>45.8265528864</v>
+        <v>8.4946649472</v>
       </c>
       <c r="D34" t="n">
-        <v>42.6217363845</v>
+        <v>6.8420112772</v>
       </c>
       <c r="E34" t="n">
-        <v>41.1438348218</v>
+        <v>6.3023748867</v>
       </c>
       <c r="F34" t="n">
-        <v>42.7356510885</v>
+        <v>5.77397851</v>
       </c>
       <c r="G34" t="n">
-        <v>35.3197845639</v>
+        <v>7.6426775374</v>
       </c>
       <c r="H34" t="n">
-        <v>33.3693733824</v>
+        <v>7.6864015488</v>
       </c>
       <c r="I34" t="n">
-        <v>38.021491935</v>
+        <v>6.4942737031</v>
       </c>
       <c r="J34" t="n">
-        <v>41.9532997352</v>
+        <v>7.3916323257</v>
       </c>
       <c r="K34" t="n">
-        <v>51.5773959824</v>
+        <v>8.2022578209</v>
       </c>
       <c r="L34" t="n">
-        <v>59.8231916325</v>
+        <v>7.9182689633</v>
       </c>
       <c r="M34" t="n">
-        <v>62.9925851484</v>
+        <v>9.2441323128</v>
       </c>
       <c r="N34" t="n">
-        <v>79.2825939048</v>
+        <v>8.6950100241</v>
       </c>
       <c r="O34" t="n">
-        <v>82.8820721235</v>
+        <v>11.285882331</v>
       </c>
       <c r="P34" t="n">
-        <v>84.0679953999</v>
+        <v>12.008468079</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.9334709672</v>
+        <v>7.429642784</v>
       </c>
       <c r="R34" t="n">
-        <v>90.0227773336</v>
+        <v>9.6805183901</v>
       </c>
       <c r="S34" t="n">
-        <v>90.1311613566</v>
+        <v>9.7713378277</v>
       </c>
       <c r="T34" t="n">
-        <v>83.3081242275</v>
+        <v>9.2257065615</v>
       </c>
       <c r="U34" t="n">
-        <v>83.8081656999</v>
+        <v>6.116326848</v>
       </c>
     </row>
     <row r="35">
@@ -65300,61 +65300,61 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>8.4946649472</v>
+        <v>10.2067691538</v>
       </c>
       <c r="D35" t="n">
-        <v>6.8420112772</v>
+        <v>10.0182371442</v>
       </c>
       <c r="E35" t="n">
-        <v>6.3023748867</v>
+        <v>8.5689717888</v>
       </c>
       <c r="F35" t="n">
-        <v>5.77397851</v>
+        <v>7.4550745632</v>
       </c>
       <c r="G35" t="n">
-        <v>7.6426775374</v>
+        <v>8.2196964378</v>
       </c>
       <c r="H35" t="n">
-        <v>7.6864015488</v>
+        <v>9.1223984347</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4942737031</v>
+        <v>8.5396291524</v>
       </c>
       <c r="J35" t="n">
-        <v>7.3916323257</v>
+        <v>9.7340872185</v>
       </c>
       <c r="K35" t="n">
-        <v>8.2022578209</v>
+        <v>14.0403173875</v>
       </c>
       <c r="L35" t="n">
-        <v>7.9182689633</v>
+        <v>16.8784415763</v>
       </c>
       <c r="M35" t="n">
-        <v>9.2441323128</v>
+        <v>13.5049608234</v>
       </c>
       <c r="N35" t="n">
-        <v>8.6950100241</v>
+        <v>9.6015377686</v>
       </c>
       <c r="O35" t="n">
-        <v>11.285882331</v>
+        <v>11.605934736</v>
       </c>
       <c r="P35" t="n">
-        <v>12.008468079</v>
+        <v>9.925273122</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.429642784</v>
+        <v>11.7348995764</v>
       </c>
       <c r="R35" t="n">
-        <v>9.6805183901</v>
+        <v>11.8515060459</v>
       </c>
       <c r="S35" t="n">
-        <v>9.7713378277</v>
+        <v>17.3624986304</v>
       </c>
       <c r="T35" t="n">
-        <v>9.2257065615</v>
+        <v>14.1362920189</v>
       </c>
       <c r="U35" t="n">
-        <v>6.116326848</v>
+        <v>13.597891429</v>
       </c>
     </row>
     <row r="36">
@@ -65365,61 +65365,61 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>10.2067691538</v>
+        <v>188.6998068852</v>
       </c>
       <c r="D36" t="n">
-        <v>10.0182371442</v>
+        <v>198.7693018782</v>
       </c>
       <c r="E36" t="n">
-        <v>8.5689717888</v>
+        <v>203.5226374576</v>
       </c>
       <c r="F36" t="n">
-        <v>7.4550745632</v>
+        <v>197.850284721</v>
       </c>
       <c r="G36" t="n">
-        <v>8.2196964378</v>
+        <v>182.4756396507</v>
       </c>
       <c r="H36" t="n">
-        <v>9.1223984347</v>
+        <v>196.1673839712</v>
       </c>
       <c r="I36" t="n">
-        <v>8.5396291524</v>
+        <v>201.6766936632</v>
       </c>
       <c r="J36" t="n">
-        <v>9.7340872185</v>
+        <v>177.0495450615</v>
       </c>
       <c r="K36" t="n">
-        <v>14.0403173875</v>
+        <v>186.494601425</v>
       </c>
       <c r="L36" t="n">
-        <v>16.8784415763</v>
+        <v>218.0102865748</v>
       </c>
       <c r="M36" t="n">
-        <v>13.5049608234</v>
+        <v>237.3661610735</v>
       </c>
       <c r="N36" t="n">
-        <v>9.6015377686</v>
+        <v>263.6207114751</v>
       </c>
       <c r="O36" t="n">
-        <v>11.605934736</v>
+        <v>294.9232496364</v>
       </c>
       <c r="P36" t="n">
-        <v>9.925273122</v>
+        <v>335.136454</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.7348995764</v>
+        <v>364.1284761471</v>
       </c>
       <c r="R36" t="n">
-        <v>11.8515060459</v>
+        <v>399.5596678104</v>
       </c>
       <c r="S36" t="n">
-        <v>17.3624986304</v>
+        <v>445.9496652</v>
       </c>
       <c r="T36" t="n">
-        <v>14.1362920189</v>
+        <v>479.587428503</v>
       </c>
       <c r="U36" t="n">
-        <v>13.597891429</v>
+        <v>511.5186387309</v>
       </c>
     </row>
     <row r="37">
@@ -65430,61 +65430,61 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>188.6998068852</v>
+        <v>6.4496086644</v>
       </c>
       <c r="D37" t="n">
-        <v>198.7693018782</v>
+        <v>7.4460528838</v>
       </c>
       <c r="E37" t="n">
-        <v>203.5226374576</v>
+        <v>8.5838313132</v>
       </c>
       <c r="F37" t="n">
-        <v>197.850284721</v>
+        <v>10.730934918</v>
       </c>
       <c r="G37" t="n">
-        <v>182.4756396507</v>
+        <v>11.9806636286</v>
       </c>
       <c r="H37" t="n">
-        <v>196.1673839712</v>
+        <v>11.7810981734</v>
       </c>
       <c r="I37" t="n">
-        <v>201.6766936632</v>
+        <v>12.3549868096</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0495450615</v>
+        <v>14.166210204</v>
       </c>
       <c r="K37" t="n">
-        <v>186.494601425</v>
+        <v>16.224558073</v>
       </c>
       <c r="L37" t="n">
-        <v>218.0102865748</v>
+        <v>17.4808442172</v>
       </c>
       <c r="M37" t="n">
-        <v>237.3661610735</v>
+        <v>19.9769399536</v>
       </c>
       <c r="N37" t="n">
-        <v>263.6207114751</v>
+        <v>21.480903488</v>
       </c>
       <c r="O37" t="n">
-        <v>294.9232496364</v>
+        <v>25.17185934</v>
       </c>
       <c r="P37" t="n">
-        <v>335.136454</v>
+        <v>30.4223153152</v>
       </c>
       <c r="Q37" t="n">
-        <v>364.1284761471</v>
+        <v>41.049772944</v>
       </c>
       <c r="R37" t="n">
-        <v>399.5596678104</v>
+        <v>47.017695849</v>
       </c>
       <c r="S37" t="n">
-        <v>445.9496652</v>
+        <v>52.497418802</v>
       </c>
       <c r="T37" t="n">
-        <v>479.587428503</v>
+        <v>57.6644322072</v>
       </c>
       <c r="U37" t="n">
-        <v>511.5186387309</v>
+        <v>61.17610356</v>
       </c>
     </row>
     <row r="38">
@@ -65495,61 +65495,61 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>6.4496086644</v>
+        <v>154.012788748</v>
       </c>
       <c r="D38" t="n">
-        <v>7.4460528838</v>
+        <v>190.923899319</v>
       </c>
       <c r="E38" t="n">
-        <v>8.5838313132</v>
+        <v>147.9454629042</v>
       </c>
       <c r="F38" t="n">
-        <v>10.730934918</v>
+        <v>111.0807296208</v>
       </c>
       <c r="G38" t="n">
-        <v>11.9806636286</v>
+        <v>87.080395038</v>
       </c>
       <c r="H38" t="n">
-        <v>11.7810981734</v>
+        <v>75.0258303915</v>
       </c>
       <c r="I38" t="n">
-        <v>12.3549868096</v>
+        <v>55.8366558384</v>
       </c>
       <c r="J38" t="n">
-        <v>14.166210204</v>
+        <v>50.7120491361</v>
       </c>
       <c r="K38" t="n">
-        <v>16.224558073</v>
+        <v>48.1009020852</v>
       </c>
       <c r="L38" t="n">
-        <v>17.4808442172</v>
+        <v>38.2875549222</v>
       </c>
       <c r="M38" t="n">
-        <v>19.9769399536</v>
+        <v>49.7000086752</v>
       </c>
       <c r="N38" t="n">
-        <v>21.480903488</v>
+        <v>49.0964662608</v>
       </c>
       <c r="O38" t="n">
-        <v>25.17185934</v>
+        <v>55.813284072</v>
       </c>
       <c r="P38" t="n">
-        <v>30.4223153152</v>
+        <v>54.7822319276</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.049772944</v>
+        <v>46.635562681</v>
       </c>
       <c r="R38" t="n">
-        <v>47.017695849</v>
+        <v>54.08874324</v>
       </c>
       <c r="S38" t="n">
-        <v>52.497418802</v>
+        <v>59.8511190883</v>
       </c>
       <c r="T38" t="n">
-        <v>57.6644322072</v>
+        <v>64.2691001295</v>
       </c>
       <c r="U38" t="n">
-        <v>61.17610356</v>
+        <v>62.4330761073001</v>
       </c>
     </row>
     <row r="39">
@@ -65560,61 +65560,61 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>154.012788748</v>
+        <v>27.1397314226</v>
       </c>
       <c r="D39" t="n">
-        <v>190.923899319</v>
+        <v>23.960711152</v>
       </c>
       <c r="E39" t="n">
-        <v>147.9454629042</v>
+        <v>20.3692845216</v>
       </c>
       <c r="F39" t="n">
-        <v>111.0807296208</v>
+        <v>16.7740456169</v>
       </c>
       <c r="G39" t="n">
-        <v>87.080395038</v>
+        <v>14.411669888</v>
       </c>
       <c r="H39" t="n">
-        <v>75.0258303915</v>
+        <v>9.5374789822</v>
       </c>
       <c r="I39" t="n">
-        <v>55.8366558384</v>
+        <v>6.7009279168</v>
       </c>
       <c r="J39" t="n">
-        <v>50.7120491361</v>
+        <v>10.7625139356</v>
       </c>
       <c r="K39" t="n">
-        <v>48.1009020852</v>
+        <v>13.940092954</v>
       </c>
       <c r="L39" t="n">
-        <v>38.2875549222</v>
+        <v>17.135373253</v>
       </c>
       <c r="M39" t="n">
-        <v>49.7000086752</v>
+        <v>19.0940036096</v>
       </c>
       <c r="N39" t="n">
-        <v>49.0964662608</v>
+        <v>21.4629469521</v>
       </c>
       <c r="O39" t="n">
-        <v>55.813284072</v>
+        <v>25.2846931288</v>
       </c>
       <c r="P39" t="n">
-        <v>54.7822319276</v>
+        <v>29.2973400424</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.635562681</v>
+        <v>15.1870818177</v>
       </c>
       <c r="R39" t="n">
-        <v>54.08874324</v>
+        <v>12.108946876</v>
       </c>
       <c r="S39" t="n">
-        <v>59.8511190883</v>
+        <v>14.2395770447</v>
       </c>
       <c r="T39" t="n">
-        <v>64.2691001295</v>
+        <v>21.0615380734</v>
       </c>
       <c r="U39" t="n">
-        <v>62.4330761073001</v>
+        <v>16.3675432096</v>
       </c>
     </row>
     <row r="40">
@@ -65625,61 +65625,61 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>27.1397314226</v>
+        <v>50.6367770163</v>
       </c>
       <c r="D40" t="n">
-        <v>23.960711152</v>
+        <v>45.9733621854</v>
       </c>
       <c r="E40" t="n">
-        <v>20.3692845216</v>
+        <v>43.2375876445</v>
       </c>
       <c r="F40" t="n">
-        <v>16.7740456169</v>
+        <v>50.030975232</v>
       </c>
       <c r="G40" t="n">
-        <v>14.411669888</v>
+        <v>35.9000700128</v>
       </c>
       <c r="H40" t="n">
-        <v>9.5374789822</v>
+        <v>22.684736569</v>
       </c>
       <c r="I40" t="n">
-        <v>6.7009279168</v>
+        <v>24.3439147778</v>
       </c>
       <c r="J40" t="n">
-        <v>10.7625139356</v>
+        <v>25.230340128</v>
       </c>
       <c r="K40" t="n">
-        <v>13.940092954</v>
+        <v>30.1228718868</v>
       </c>
       <c r="L40" t="n">
-        <v>17.135373253</v>
+        <v>35.2080042498</v>
       </c>
       <c r="M40" t="n">
-        <v>19.0940036096</v>
+        <v>38.7593001553</v>
       </c>
       <c r="N40" t="n">
-        <v>21.4629469521</v>
+        <v>41.9883693789</v>
       </c>
       <c r="O40" t="n">
-        <v>25.2846931288</v>
+        <v>45.2792921565</v>
       </c>
       <c r="P40" t="n">
-        <v>29.2973400424</v>
+        <v>39.8799650592</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.1870818177</v>
+        <v>36.2568092382</v>
       </c>
       <c r="R40" t="n">
-        <v>12.108946876</v>
+        <v>44.3536915744</v>
       </c>
       <c r="S40" t="n">
-        <v>14.2395770447</v>
+        <v>66.7589981395</v>
       </c>
       <c r="T40" t="n">
-        <v>21.0615380734</v>
+        <v>99.3791965516</v>
       </c>
       <c r="U40" t="n">
-        <v>16.3675432096</v>
+        <v>109.7006753325</v>
       </c>
     </row>
     <row r="41">
@@ -65689,63 +65689,25 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="n">
-        <v>50.6367770163</v>
-      </c>
-      <c r="D41" t="n">
-        <v>45.9733621854</v>
-      </c>
-      <c r="E41" t="n">
-        <v>43.2375876445</v>
-      </c>
-      <c r="F41" t="n">
-        <v>50.030975232</v>
-      </c>
-      <c r="G41" t="n">
-        <v>35.9000700128</v>
-      </c>
-      <c r="H41" t="n">
-        <v>22.684736569</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24.3439147778</v>
-      </c>
-      <c r="J41" t="n">
-        <v>25.230340128</v>
-      </c>
-      <c r="K41" t="n">
-        <v>30.1228718868</v>
-      </c>
-      <c r="L41" t="n">
-        <v>35.2080042498</v>
-      </c>
-      <c r="M41" t="n">
-        <v>38.7593001553</v>
-      </c>
-      <c r="N41" t="n">
-        <v>41.9883693789</v>
-      </c>
-      <c r="O41" t="n">
-        <v>45.2792921565</v>
-      </c>
-      <c r="P41" t="n">
-        <v>39.8799650592</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>36.2568092382</v>
-      </c>
-      <c r="R41" t="n">
-        <v>44.3536915744</v>
-      </c>
-      <c r="S41" t="n">
-        <v>66.7589981395</v>
-      </c>
-      <c r="T41" t="n">
-        <v>99.3791965516</v>
-      </c>
-      <c r="U41" t="n">
-        <v>109.7006753325</v>
-      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -65754,25 +65716,63 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
+      <c r="C42" t="n">
+        <v>105.0316180944</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100.1993586204</v>
+      </c>
+      <c r="E42" t="n">
+        <v>87.776544276</v>
+      </c>
+      <c r="F42" t="n">
+        <v>152.7554583945</v>
+      </c>
+      <c r="G42" t="n">
+        <v>131.4289042245</v>
+      </c>
+      <c r="H42" t="n">
+        <v>120.4917864282</v>
+      </c>
+      <c r="I42" t="n">
+        <v>67.7250794721</v>
+      </c>
+      <c r="J42" t="n">
+        <v>100.0038089788</v>
+      </c>
+      <c r="K42" t="n">
+        <v>93.1919648908</v>
+      </c>
+      <c r="L42" t="n">
+        <v>76.18895172</v>
+      </c>
+      <c r="M42" t="n">
+        <v>66.9073471335</v>
+      </c>
+      <c r="N42" t="n">
+        <v>62.5299667328</v>
+      </c>
+      <c r="O42" t="n">
+        <v>69.7357375392</v>
+      </c>
+      <c r="P42" t="n">
+        <v>72.5690061495001</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>75.915075324</v>
+      </c>
+      <c r="R42" t="n">
+        <v>82.6278127288</v>
+      </c>
+      <c r="S42" t="n">
+        <v>131.0379327627</v>
+      </c>
+      <c r="T42" t="n">
+        <v>146.9419823694</v>
+      </c>
+      <c r="U42" t="n">
+        <v>143.2968681912</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -65782,61 +65782,61 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>105.0316180944</v>
+        <v>22.2092925857</v>
       </c>
       <c r="D43" t="n">
-        <v>100.1993586204</v>
+        <v>25.7044031211</v>
       </c>
       <c r="E43" t="n">
-        <v>87.776544276</v>
+        <v>25.3474386088</v>
       </c>
       <c r="F43" t="n">
-        <v>152.7554583945</v>
+        <v>23.6830942175</v>
       </c>
       <c r="G43" t="n">
-        <v>131.4289042245</v>
+        <v>21.3643312155</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4917864282</v>
+        <v>17.3965837758</v>
       </c>
       <c r="I43" t="n">
-        <v>67.7250794721</v>
+        <v>12.1675490192</v>
       </c>
       <c r="J43" t="n">
-        <v>100.0038089788</v>
+        <v>14.7354113984</v>
       </c>
       <c r="K43" t="n">
-        <v>93.1919648908</v>
+        <v>16.2808002945</v>
       </c>
       <c r="L43" t="n">
-        <v>76.18895172</v>
+        <v>19.2864045007</v>
       </c>
       <c r="M43" t="n">
-        <v>66.9073471335</v>
+        <v>14.4436815081</v>
       </c>
       <c r="N43" t="n">
-        <v>62.5299667328</v>
+        <v>16.961544972</v>
       </c>
       <c r="O43" t="n">
-        <v>69.7357375392</v>
+        <v>19.3333584444</v>
       </c>
       <c r="P43" t="n">
-        <v>72.5690061495001</v>
+        <v>19.6316331534</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.915075324</v>
+        <v>24.3179729658</v>
       </c>
       <c r="R43" t="n">
-        <v>82.6278127288</v>
+        <v>21.7653364416</v>
       </c>
       <c r="S43" t="n">
-        <v>131.0379327627</v>
+        <v>19.8855750447</v>
       </c>
       <c r="T43" t="n">
-        <v>146.9419823694</v>
+        <v>23.3418891255</v>
       </c>
       <c r="U43" t="n">
-        <v>143.2968681912</v>
+        <v>27.2232526013</v>
       </c>
     </row>
     <row r="44">
@@ -74515,61 +74515,61 @@
         <v>370</v>
       </c>
       <c r="C184" t="n">
-        <v>652.09971159</v>
+        <v>1662.8030155075</v>
       </c>
       <c r="D184" t="n">
-        <v>451.3796644588</v>
+        <v>1686.4301079168</v>
       </c>
       <c r="E184" t="n">
-        <v>379.8605737914</v>
+        <v>1719.3460218732</v>
       </c>
       <c r="F184" t="n">
-        <v>241.4279259917</v>
+        <v>1817.0730311755</v>
       </c>
       <c r="G184" t="n">
-        <v>120.0790441344</v>
+        <v>1901.5723998034</v>
       </c>
       <c r="H184" t="n">
-        <v>94.96582389</v>
+        <v>1847.7145033725</v>
       </c>
       <c r="I184" t="n">
-        <v>112.8602548872</v>
+        <v>1862.9172638</v>
       </c>
       <c r="J184" t="n">
-        <v>138.4989908775</v>
+        <v>2073.595247021</v>
       </c>
       <c r="K184" t="n">
-        <v>174.6322166475</v>
+        <v>2403.489532094</v>
       </c>
       <c r="L184" t="n">
-        <v>189.221339244</v>
+        <v>2888.1730691554</v>
       </c>
       <c r="M184" t="n">
-        <v>200.5592599056</v>
+        <v>3021.9692808262</v>
       </c>
       <c r="N184" t="n">
-        <v>223.3416338351</v>
+        <v>3196.4258212238</v>
       </c>
       <c r="O184" t="n">
-        <v>244.7548475904</v>
+        <v>3549.5222537776</v>
       </c>
       <c r="P184" t="n">
-        <v>234.3256644</v>
+        <v>3433.3413945983</v>
       </c>
       <c r="Q184" t="n">
-        <v>152.286195717</v>
+        <v>3085.5400101718</v>
       </c>
       <c r="R184" t="n">
-        <v>161.065795869</v>
+        <v>2992.695695183</v>
       </c>
       <c r="S184" t="n">
-        <v>156.7234663995</v>
+        <v>3045.2138478624</v>
       </c>
       <c r="T184" t="n">
-        <v>159.6123432508</v>
+        <v>3029.5201950195</v>
       </c>
       <c r="U184" t="n">
-        <v>160.7699511528</v>
+        <v>2957.6668191717</v>
       </c>
     </row>
     <row r="185">
@@ -74580,61 +74580,61 @@
         <v>372</v>
       </c>
       <c r="C185" t="n">
-        <v>1662.8030155075</v>
+        <v>652.09971159</v>
       </c>
       <c r="D185" t="n">
-        <v>1686.4301079168</v>
+        <v>451.3796644588</v>
       </c>
       <c r="E185" t="n">
-        <v>1719.3460218732</v>
+        <v>379.8605737914</v>
       </c>
       <c r="F185" t="n">
-        <v>1817.0730311755</v>
+        <v>241.4279259917</v>
       </c>
       <c r="G185" t="n">
-        <v>1901.5723998034</v>
+        <v>120.0790441344</v>
       </c>
       <c r="H185" t="n">
-        <v>1847.7145033725</v>
+        <v>94.96582389</v>
       </c>
       <c r="I185" t="n">
-        <v>1862.9172638</v>
+        <v>112.8602548872</v>
       </c>
       <c r="J185" t="n">
-        <v>2073.595247021</v>
+        <v>138.4989908775</v>
       </c>
       <c r="K185" t="n">
-        <v>2403.489532094</v>
+        <v>174.6322166475</v>
       </c>
       <c r="L185" t="n">
-        <v>2888.1730691554</v>
+        <v>189.221339244</v>
       </c>
       <c r="M185" t="n">
-        <v>3021.9692808262</v>
+        <v>200.5592599056</v>
       </c>
       <c r="N185" t="n">
-        <v>3196.4258212238</v>
+        <v>223.3416338351</v>
       </c>
       <c r="O185" t="n">
-        <v>3549.5222537776</v>
+        <v>244.7548475904</v>
       </c>
       <c r="P185" t="n">
-        <v>3433.3413945983</v>
+        <v>234.3256644</v>
       </c>
       <c r="Q185" t="n">
-        <v>3085.5400101718</v>
+        <v>152.286195717</v>
       </c>
       <c r="R185" t="n">
-        <v>2992.695695183</v>
+        <v>161.065795869</v>
       </c>
       <c r="S185" t="n">
-        <v>3045.2138478624</v>
+        <v>156.7234663995</v>
       </c>
       <c r="T185" t="n">
-        <v>3029.5201950195</v>
+        <v>159.6123432508</v>
       </c>
       <c r="U185" t="n">
-        <v>2957.6668191717</v>
+        <v>160.7699511528</v>
       </c>
     </row>
     <row r="186">

--- a/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
+++ b/user-data/general-gov-health-exp/general-gov-health-exp.xlsx
@@ -6834,7 +6834,7 @@
         <v>2013</v>
       </c>
       <c r="D305" t="n">
-        <v>255.430311059696</v>
+        <v>255.4303110597</v>
       </c>
       <c r="E305" t="n">
         <v>2699248</v>
@@ -8545,7 +8545,7 @@
         <v>2000</v>
       </c>
       <c r="D406" t="n">
-        <v>2.16251930220001</v>
+        <v>2.1625193022</v>
       </c>
       <c r="E406" t="n">
         <v>      3</v>
@@ -8579,7 +8579,7 @@
         <v>2002</v>
       </c>
       <c r="D408" t="n">
-        <v>2.67758939320001</v>
+        <v>2.6775893932</v>
       </c>
       <c r="E408" t="n">
         <v>      4</v>
@@ -8596,7 +8596,7 @@
         <v>2003</v>
       </c>
       <c r="D409" t="n">
-        <v>3.95757063950001</v>
+        <v>3.9575706395</v>
       </c>
       <c r="E409" t="n">
         <v>      5</v>
@@ -8613,7 +8613,7 @@
         <v>2004</v>
       </c>
       <c r="D410" t="n">
-        <v>8.49646503600002</v>
+        <v>8.496465036</v>
       </c>
       <c r="E410" t="n">
         <v>     10</v>
@@ -8664,7 +8664,7 @@
         <v>2007</v>
       </c>
       <c r="D413" t="n">
-        <v>8.75696311600001</v>
+        <v>8.756963116</v>
       </c>
       <c r="E413" t="n">
         <v>     11</v>
@@ -8766,7 +8766,7 @@
         <v>2013</v>
       </c>
       <c r="D419" t="n">
-        <v>7.43508932650002</v>
+        <v>7.4350893265</v>
       </c>
       <c r="E419" t="n">
         <v>     11</v>
@@ -13611,7 +13611,7 @@
         <v>2013</v>
       </c>
       <c r="D704" t="n">
-        <v>62.4330761073001</v>
+        <v>62.4330761073</v>
       </c>
       <c r="E704" t="n">
         <v> 118623</v>
@@ -14780,7 +14780,7 @@
         <v>2008</v>
       </c>
       <c r="D775" t="n">
-        <v>72.5690061495001</v>
+        <v>72.5690061495</v>
       </c>
       <c r="E775" t="n">
         <v>  29995</v>
@@ -15256,7 +15256,7 @@
         <v>1998</v>
       </c>
       <c r="D803" t="n">
-        <v>13.9254411840001</v>
+        <v>13.925441184</v>
       </c>
       <c r="E803" t="n">
         <v>     48</v>
@@ -15324,7 +15324,7 @@
         <v>2002</v>
       </c>
       <c r="D807" t="n">
-        <v>9.58471822550001</v>
+        <v>9.5847182255</v>
       </c>
       <c r="E807" t="n">
         <v>     55</v>
@@ -15511,7 +15511,7 @@
         <v>2013</v>
       </c>
       <c r="D818" t="n">
-        <v>50.2907506975999</v>
+        <v>50.2907506976</v>
       </c>
       <c r="E818" t="n">
         <v>    289</v>
@@ -16272,7 +16272,7 @@
         <v>2003</v>
       </c>
       <c r="D865" t="n">
-        <v>80.1158064432001</v>
+        <v>80.1158064432</v>
       </c>
       <c r="E865" t="n">
         <v>   2032</v>
@@ -16442,7 +16442,7 @@
         <v>2013</v>
       </c>
       <c r="D875" t="n">
-        <v>81.8568297379002</v>
+        <v>81.8568297379</v>
       </c>
       <c r="E875" t="n">
         <v>   1633</v>
@@ -19741,7 +19741,7 @@
         <v>1999</v>
       </c>
       <c r="D1070" t="n">
-        <v>50.5888035624999</v>
+        <v>50.5888035625</v>
       </c>
       <c r="E1070" t="n">
         <v>     25</v>
@@ -19860,7 +19860,7 @@
         <v>2006</v>
       </c>
       <c r="D1077" t="n">
-        <v>90.7610702096001</v>
+        <v>90.7610702096</v>
       </c>
       <c r="E1077" t="n">
         <v>     56</v>
@@ -26762,7 +26762,7 @@
         <v>2013</v>
       </c>
       <c r="D1483" t="n">
-        <v>32.8866361506507</v>
+        <v>32.8866361507</v>
       </c>
       <c r="E1483" t="n">
         <v> 358208</v>
@@ -27068,7 +27068,7 @@
         <v>2012</v>
       </c>
       <c r="D1501" t="n">
-        <v>73.7525917973492</v>
+        <v>73.7525917973</v>
       </c>
       <c r="E1501" t="n">
         <v>1258734</v>
@@ -27085,7 +27085,7 @@
         <v>2013</v>
       </c>
       <c r="D1502" t="n">
-        <v>50.7160862190828</v>
+        <v>50.7160862191</v>
       </c>
       <c r="E1502" t="n">
         <v>1714387</v>
@@ -33174,7 +33174,7 @@
         <v>2013</v>
       </c>
       <c r="D1863" t="n">
-        <v>95.2789479725999</v>
+        <v>95.2789479726</v>
       </c>
       <c r="E1863" t="n">
         <v>    249</v>
@@ -33514,7 +33514,7 @@
         <v>1995</v>
       </c>
       <c r="D1883" t="n">
-        <v>6.14486373600002</v>
+        <v>6.144863736</v>
       </c>
       <c r="E1883" t="n">
         <v>    132</v>
@@ -33531,7 +33531,7 @@
         <v>1996</v>
       </c>
       <c r="D1884" t="n">
-        <v>5.59871470599998</v>
+        <v>5.598714706</v>
       </c>
       <c r="E1884" t="n">
         <v>    130</v>
@@ -33548,7 +33548,7 @@
         <v>1997</v>
       </c>
       <c r="D1885" t="n">
-        <v>4.29084655559998</v>
+        <v>4.2908465556</v>
       </c>
       <c r="E1885" t="n">
         <v>    129</v>
@@ -33565,7 +33565,7 @@
         <v>1998</v>
       </c>
       <c r="D1886" t="n">
-        <v>3.98892635749999</v>
+        <v>3.9889263575</v>
       </c>
       <c r="E1886" t="n">
         <v>    133</v>
@@ -33599,7 +33599,7 @@
         <v>2000</v>
       </c>
       <c r="D1888" t="n">
-        <v>3.41295132419999</v>
+        <v>3.4129513242</v>
       </c>
       <c r="E1888" t="n">
         <v>    153</v>
@@ -33633,7 +33633,7 @@
         <v>2002</v>
       </c>
       <c r="D1890" t="n">
-        <v>3.72718769280002</v>
+        <v>3.7271876928</v>
       </c>
       <c r="E1890" t="n">
         <v>    176</v>
@@ -33650,7 +33650,7 @@
         <v>2003</v>
       </c>
       <c r="D1891" t="n">
-        <v>3.93170377600001</v>
+        <v>3.931703776</v>
       </c>
       <c r="E1891" t="n">
         <v>    160</v>
@@ -33667,7 +33667,7 @@
         <v>2004</v>
       </c>
       <c r="D1892" t="n">
-        <v>4.87303866139999</v>
+        <v>4.8730386614</v>
       </c>
       <c r="E1892" t="n">
         <v>    182</v>
@@ -33684,7 +33684,7 @@
         <v>2005</v>
       </c>
       <c r="D1893" t="n">
-        <v>7.60455790079999</v>
+        <v>7.6045579008</v>
       </c>
       <c r="E1893" t="n">
         <v>    294</v>
@@ -38465,7 +38465,7 @@
         <v>2005</v>
       </c>
       <c r="D2178" t="n">
-        <v>6.92027266920002</v>
+        <v>6.9202726692</v>
       </c>
       <c r="E2178" t="n">
         <v>      4</v>
@@ -38482,7 +38482,7 @@
         <v>2006</v>
       </c>
       <c r="D2179" t="n">
-        <v>7.99619906949999</v>
+        <v>7.9961990695</v>
       </c>
       <c r="E2179" t="n">
         <v>      5</v>
@@ -45547,7 +45547,7 @@
         <v>2009</v>
       </c>
       <c r="D2600" t="n">
-        <v>87.0118081712001</v>
+        <v>87.0118081712</v>
       </c>
       <c r="E2600" t="n">
         <v>    253</v>
@@ -49082,7 +49082,7 @@
         <v>2009</v>
       </c>
       <c r="D2809" t="n">
-        <v>43.4892670815333</v>
+        <v>43.4892670815</v>
       </c>
       <c r="E2809" t="n">
         <v> 509082</v>
@@ -49099,7 +49099,7 @@
         <v>2010</v>
       </c>
       <c r="D2810" t="n">
-        <v>38.3275343620078</v>
+        <v>38.327534362</v>
       </c>
       <c r="E2810" t="n">
         <v> 570891</v>
@@ -49116,7 +49116,7 @@
         <v>2011</v>
       </c>
       <c r="D2811" t="n">
-        <v>41.0203317420111</v>
+        <v>41.020331742</v>
       </c>
       <c r="E2811" t="n">
         <v> 653222</v>
@@ -49133,7 +49133,7 @@
         <v>2012</v>
       </c>
       <c r="D2812" t="n">
-        <v>34.5579801411328</v>
+        <v>34.5579801411</v>
       </c>
       <c r="E2812" t="n">
         <v> 659976</v>
@@ -49150,7 +49150,7 @@
         <v>2013</v>
       </c>
       <c r="D2813" t="n">
-        <v>29.0511390958918</v>
+        <v>29.0511390959</v>
       </c>
       <c r="E2813" t="n">
         <v> 585350</v>
@@ -51214,7 +51214,7 @@
         <v>2002</v>
       </c>
       <c r="D2935" t="n">
-        <v>9.99045551400002</v>
+        <v>9.990455514</v>
       </c>
       <c r="E2935" t="n">
         <v>     12</v>
@@ -51350,7 +51350,7 @@
         <v>2010</v>
       </c>
       <c r="D2943" t="n">
-        <v>94.2203831654999</v>
+        <v>94.2203831655</v>
       </c>
       <c r="E2943" t="n">
         <v>     69</v>
@@ -51435,7 +51435,7 @@
         <v>1996</v>
       </c>
       <c r="D2948" t="n">
-        <v>83.2437098615999</v>
+        <v>83.2437098616</v>
       </c>
       <c r="E2948" t="n">
         <v>     24</v>
@@ -51452,7 +51452,7 @@
         <v>1997</v>
       </c>
       <c r="D2949" t="n">
-        <v>76.0357348351999</v>
+        <v>76.0357348352</v>
       </c>
       <c r="E2949" t="n">
         <v>     28</v>
@@ -51469,7 +51469,7 @@
         <v>1998</v>
       </c>
       <c r="D2950" t="n">
-        <v>75.2786037112002</v>
+        <v>75.2786037112</v>
       </c>
       <c r="E2950" t="n">
         <v>     31</v>
@@ -51503,7 +51503,7 @@
         <v>2000</v>
       </c>
       <c r="D2952" t="n">
-        <v>58.2622085519999</v>
+        <v>58.262208552</v>
       </c>
       <c r="E2952" t="n">
         <v>     36</v>
@@ -51520,7 +51520,7 @@
         <v>2001</v>
       </c>
       <c r="D2953" t="n">
-        <v>57.1500997620001</v>
+        <v>57.150099762</v>
       </c>
       <c r="E2953" t="n">
         <v>     42</v>
@@ -51554,7 +51554,7 @@
         <v>2003</v>
       </c>
       <c r="D2955" t="n">
-        <v>95.4229907883999</v>
+        <v>95.4229907884</v>
       </c>
       <c r="E2955" t="n">
         <v>     68</v>
@@ -51724,7 +51724,7 @@
         <v>2013</v>
       </c>
       <c r="D2965" t="n">
-        <v>95.6212040694002</v>
+        <v>95.6212040694</v>
       </c>
       <c r="E2965" t="n">
         <v>     73</v>
@@ -62408,7 +62408,7 @@
         <v>2009</v>
       </c>
       <c r="D3607" t="n">
-        <v>28.3243120051313</v>
+        <v>28.3243120051</v>
       </c>
       <c r="E3607" t="n">
         <v> 334454</v>
@@ -62425,7 +62425,7 @@
         <v>2010</v>
       </c>
       <c r="D3608" t="n">
-        <v>31.8246621324697</v>
+        <v>31.8246621325</v>
       </c>
       <c r="E3608" t="n">
         <v> 452719</v>
@@ -62442,7 +62442,7 @@
         <v>2011</v>
       </c>
       <c r="D3609" t="n">
-        <v>28.1232490032105</v>
+        <v>28.1232490032</v>
       </c>
       <c r="E3609" t="n">
         <v> 523624</v>
@@ -62459,7 +62459,7 @@
         <v>2012</v>
       </c>
       <c r="D3610" t="n">
-        <v>27.4264253965979</v>
+        <v>27.4264253966</v>
       </c>
       <c r="E3610" t="n">
         <v> 572174</v>
@@ -62476,7 +62476,7 @@
         <v>2013</v>
       </c>
       <c r="D3611" t="n">
-        <v>27.8815953118036</v>
+        <v>27.8815953118</v>
       </c>
       <c r="E3611" t="n">
         <v> 613800</v>
@@ -64190,7 +64190,7 @@
         <v>261.4752887502</v>
       </c>
       <c r="U17" t="n">
-        <v>255.430311059696</v>
+        <v>255.4303110597</v>
       </c>
     </row>
     <row r="18">
@@ -64535,19 +64535,19 @@
         <v>2.673870261</v>
       </c>
       <c r="H23" t="n">
-        <v>2.16251930220001</v>
+        <v>2.1625193022</v>
       </c>
       <c r="I23" t="n">
         <v>2.6737094276</v>
       </c>
       <c r="J23" t="n">
-        <v>2.67758939320001</v>
+        <v>2.6775893932</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95757063950001</v>
+        <v>3.9575706395</v>
       </c>
       <c r="L23" t="n">
-        <v>8.49646503600002</v>
+        <v>8.496465036</v>
       </c>
       <c r="M23" t="n">
         <v>10.6881104161</v>
@@ -64556,7 +64556,7 @@
         <v>13.1924470541</v>
       </c>
       <c r="O23" t="n">
-        <v>8.75696311600001</v>
+        <v>8.756963116</v>
       </c>
       <c r="P23" t="n">
         <v>14.9807679813</v>
@@ -64574,7 +64574,7 @@
         <v>28.90588327</v>
       </c>
       <c r="U23" t="n">
-        <v>7.43508932650002</v>
+        <v>7.4350893265</v>
       </c>
     </row>
     <row r="24">
@@ -65549,7 +65549,7 @@
         <v>64.2691001295</v>
       </c>
       <c r="U38" t="n">
-        <v>62.4330761073001</v>
+        <v>62.4330761073</v>
       </c>
     </row>
     <row r="39">
@@ -65756,7 +65756,7 @@
         <v>69.7357375392</v>
       </c>
       <c r="P42" t="n">
-        <v>72.5690061495001</v>
+        <v>72.5690061495</v>
       </c>
       <c r="Q42" t="n">
         <v>75.915075324</v>
@@ -65856,7 +65856,7 @@
         <v>13.12108666</v>
       </c>
       <c r="F44" t="n">
-        <v>13.9254411840001</v>
+        <v>13.925441184</v>
       </c>
       <c r="G44" t="n">
         <v>14.7993408445</v>
@@ -65868,7 +65868,7 @@
         <v>10.7064542781</v>
       </c>
       <c r="J44" t="n">
-        <v>9.58471822550001</v>
+        <v>9.5847182255</v>
       </c>
       <c r="K44" t="n">
         <v>11.0258665328</v>
@@ -65901,7 +65901,7 @@
         <v>49.30281144</v>
       </c>
       <c r="U44" t="n">
-        <v>50.2907506975999</v>
+        <v>50.2907506976</v>
       </c>
     </row>
     <row r="45">
@@ -66028,7 +66028,7 @@
         <v>53.3683098027</v>
       </c>
       <c r="K47" t="n">
-        <v>80.1158064432001</v>
+        <v>80.1158064432</v>
       </c>
       <c r="L47" t="n">
         <v>79.7859437144</v>
@@ -66058,7 +66058,7 @@
         <v>86.83427603</v>
       </c>
       <c r="U47" t="n">
-        <v>81.8568297379002</v>
+        <v>81.8568297379</v>
       </c>
     </row>
     <row r="48">
@@ -66723,7 +66723,7 @@
         <v>389.9375471184</v>
       </c>
       <c r="G58" t="n">
-        <v>50.5888035624999</v>
+        <v>50.5888035625</v>
       </c>
       <c r="H58" t="n">
         <v>40.2455795136</v>
@@ -66744,7 +66744,7 @@
         <v>75.1095804255</v>
       </c>
       <c r="N58" t="n">
-        <v>90.7610702096001</v>
+        <v>90.7610702096</v>
       </c>
       <c r="O58" t="n">
         <v>111.142630137</v>
@@ -68130,7 +68130,7 @@
         <v>35.19124672</v>
       </c>
       <c r="U79" t="n">
-        <v>32.8866361506507</v>
+        <v>32.8866361507</v>
       </c>
     </row>
     <row r="80">
@@ -68192,10 +68192,10 @@
         <v>133.86852727</v>
       </c>
       <c r="T80" t="n">
-        <v>73.7525917973492</v>
+        <v>73.7525917973</v>
       </c>
       <c r="U80" t="n">
-        <v>50.7160862190828</v>
+        <v>50.7160862191</v>
       </c>
     </row>
     <row r="81">
@@ -69396,7 +69396,7 @@
         <v>91.203719159</v>
       </c>
       <c r="U99" t="n">
-        <v>95.2789479725999</v>
+        <v>95.2789479726</v>
       </c>
     </row>
     <row r="100">
@@ -69472,37 +69472,37 @@
         <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>6.14486373600002</v>
+        <v>6.144863736</v>
       </c>
       <c r="D101" t="n">
-        <v>5.59871470599998</v>
+        <v>5.598714706</v>
       </c>
       <c r="E101" t="n">
-        <v>4.29084655559998</v>
+        <v>4.2908465556</v>
       </c>
       <c r="F101" t="n">
-        <v>3.98892635749999</v>
+        <v>3.9889263575</v>
       </c>
       <c r="G101" t="n">
         <v>3.9962846924</v>
       </c>
       <c r="H101" t="n">
-        <v>3.41295132419999</v>
+        <v>3.4129513242</v>
       </c>
       <c r="I101" t="n">
         <v>3.4187172516</v>
       </c>
       <c r="J101" t="n">
-        <v>3.72718769280002</v>
+        <v>3.7271876928</v>
       </c>
       <c r="K101" t="n">
-        <v>3.93170377600001</v>
+        <v>3.931703776</v>
       </c>
       <c r="L101" t="n">
-        <v>4.87303866139999</v>
+        <v>4.8730386614</v>
       </c>
       <c r="M101" t="n">
-        <v>7.60455790079999</v>
+        <v>7.6045579008</v>
       </c>
       <c r="N101" t="n">
         <v>14.0867629374</v>
@@ -70413,10 +70413,10 @@
         <v>3.6018587822</v>
       </c>
       <c r="M116" t="n">
-        <v>6.92027266920002</v>
+        <v>6.9202726692</v>
       </c>
       <c r="N116" t="n">
-        <v>7.99619906949999</v>
+        <v>7.9961990695</v>
       </c>
       <c r="O116" t="n">
         <v>12.3986625912</v>
@@ -71763,7 +71763,7 @@
         <v>111.7072693088</v>
       </c>
       <c r="Q138" t="n">
-        <v>87.0118081712001</v>
+        <v>87.0118081712</v>
       </c>
       <c r="R138" t="n">
         <v>89.7185915136</v>
@@ -72460,19 +72460,19 @@
         <v>29.8286802936</v>
       </c>
       <c r="Q149" t="n">
-        <v>43.4892670815333</v>
+        <v>43.4892670815</v>
       </c>
       <c r="R149" t="n">
-        <v>38.3275343620078</v>
+        <v>38.327534362</v>
       </c>
       <c r="S149" t="n">
-        <v>41.0203317420111</v>
+        <v>41.020331742</v>
       </c>
       <c r="T149" t="n">
-        <v>34.5579801411328</v>
+        <v>34.5579801411</v>
       </c>
       <c r="U149" t="n">
-        <v>29.0511390958918</v>
+        <v>29.0511390959</v>
       </c>
     </row>
     <row r="150">
@@ -72884,7 +72884,7 @@
         <v>12.9354244512</v>
       </c>
       <c r="J156" t="n">
-        <v>9.99045551400002</v>
+        <v>9.990455514</v>
       </c>
       <c r="K156" t="n">
         <v>24.33797782</v>
@@ -72908,7 +72908,7 @@
         <v>102.2709689149</v>
       </c>
       <c r="R156" t="n">
-        <v>94.2203831654999</v>
+        <v>94.2203831655</v>
       </c>
       <c r="S156" t="n">
         <v>105.6631259925</v>
@@ -72931,28 +72931,28 @@
         <v>79.426607337</v>
       </c>
       <c r="D157" t="n">
-        <v>83.2437098615999</v>
+        <v>83.2437098616</v>
       </c>
       <c r="E157" t="n">
-        <v>76.0357348351999</v>
+        <v>76.0357348352</v>
       </c>
       <c r="F157" t="n">
-        <v>75.2786037112002</v>
+        <v>75.2786037112</v>
       </c>
       <c r="G157" t="n">
         <v>81.3292434318</v>
       </c>
       <c r="H157" t="n">
-        <v>58.2622085519999</v>
+        <v>58.262208552</v>
       </c>
       <c r="I157" t="n">
-        <v>57.1500997620001</v>
+        <v>57.150099762</v>
       </c>
       <c r="J157" t="n">
         <v>74.196552229</v>
       </c>
       <c r="K157" t="n">
-        <v>95.4229907883999</v>
+        <v>95.4229907884</v>
       </c>
       <c r="L157" t="n">
         <v>105.2513848296</v>
@@ -72982,7 +72982,7 @@
         <v>128.55635172</v>
       </c>
       <c r="U157" t="n">
-        <v>95.6212040694002</v>
+        <v>95.6212040694</v>
       </c>
     </row>
     <row r="158">
@@ -75012,19 +75012,19 @@
         <v>23.995902416</v>
       </c>
       <c r="Q191" t="n">
-        <v>28.3243120051313</v>
+        <v>28.3243120051</v>
       </c>
       <c r="R191" t="n">
-        <v>31.8246621324697</v>
+        <v>31.8246621325</v>
       </c>
       <c r="S191" t="n">
-        <v>28.1232490032105</v>
+        <v>28.1232490032</v>
       </c>
       <c r="T191" t="n">
-        <v>27.4264253965979</v>
+        <v>27.4264253966</v>
       </c>
       <c r="U191" t="n">
-        <v>27.8815953118036</v>
+        <v>27.8815953118</v>
       </c>
     </row>
     <row r="192">
